--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="25">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -104,10 +104,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -201,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,7 +260,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,12 +293,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E452" activeCellId="0" sqref="E452"/>
+      <selection pane="bottomLeft" activeCell="E565" activeCellId="0" sqref="E565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7029,7 +7043,7 @@
       <c r="B335" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C335" s="14" t="n">
+      <c r="C335" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D335" s="13" t="n">
@@ -7043,7 +7057,7 @@
       <c r="B336" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C336" s="14" t="n">
+      <c r="C336" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D336" s="13" t="n">
@@ -7057,7 +7071,7 @@
       <c r="B337" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C337" s="14" t="n">
+      <c r="C337" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D337" s="13" t="n">
@@ -7071,7 +7085,7 @@
       <c r="B338" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C338" s="14" t="n">
+      <c r="C338" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D338" s="13" t="n">
@@ -7085,7 +7099,7 @@
       <c r="B339" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C339" s="14" t="n">
+      <c r="C339" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D339" s="13" t="n">
@@ -7099,7 +7113,7 @@
       <c r="B340" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C340" s="14" t="n">
+      <c r="C340" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D340" s="0" t="n">
@@ -7113,7 +7127,7 @@
       <c r="B341" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C341" s="14" t="n">
+      <c r="C341" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D341" s="13" t="n">
@@ -7127,7 +7141,7 @@
       <c r="B342" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C342" s="14" t="n">
+      <c r="C342" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D342" s="13" t="n">
@@ -7141,7 +7155,7 @@
       <c r="B343" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C343" s="14" t="n">
+      <c r="C343" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D343" s="13" t="n">
@@ -7155,7 +7169,7 @@
       <c r="B344" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C344" s="14" t="n">
+      <c r="C344" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D344" s="13" t="n">
@@ -7169,7 +7183,7 @@
       <c r="B345" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C345" s="14" t="n">
+      <c r="C345" s="12" t="n">
         <v>43110</v>
       </c>
       <c r="D345" s="13" t="n">
@@ -7183,7 +7197,7 @@
       <c r="B346" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C346" s="14" t="n">
+      <c r="C346" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D346" s="0" t="n">
@@ -7197,7 +7211,7 @@
       <c r="B347" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C347" s="14" t="n">
+      <c r="C347" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D347" s="13" t="n">
@@ -7211,7 +7225,7 @@
       <c r="B348" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C348" s="14" t="n">
+      <c r="C348" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D348" s="13" t="n">
@@ -7225,7 +7239,7 @@
       <c r="B349" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C349" s="14" t="n">
+      <c r="C349" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D349" s="13" t="n">
@@ -7239,7 +7253,7 @@
       <c r="B350" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C350" s="14" t="n">
+      <c r="C350" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D350" s="13" t="n">
@@ -7253,7 +7267,7 @@
       <c r="B351" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C351" s="14" t="n">
+      <c r="C351" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D351" s="13" t="n">
@@ -7267,7 +7281,7 @@
       <c r="B352" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C352" s="14" t="n">
+      <c r="C352" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D352" s="13" t="n">
@@ -7281,7 +7295,7 @@
       <c r="B353" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C353" s="14" t="n">
+      <c r="C353" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D353" s="13" t="n">
@@ -7295,7 +7309,7 @@
       <c r="B354" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C354" s="14" t="n">
+      <c r="C354" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D354" s="13" t="n">
@@ -7309,7 +7323,7 @@
       <c r="B355" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C355" s="14" t="n">
+      <c r="C355" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D355" s="13" t="n">
@@ -7323,7 +7337,7 @@
       <c r="B356" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C356" s="14" t="n">
+      <c r="C356" s="12" t="n">
         <v>43115</v>
       </c>
       <c r="D356" s="13" t="n">
@@ -7337,7 +7351,7 @@
       <c r="B357" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C357" s="14" t="n">
+      <c r="C357" s="12" t="n">
         <v>43119</v>
       </c>
       <c r="D357" s="0" t="n">
@@ -7351,7 +7365,7 @@
       <c r="B358" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C358" s="14" t="n">
+      <c r="C358" s="12" t="n">
         <v>43119</v>
       </c>
       <c r="D358" s="0" t="n">
@@ -7368,7 +7382,7 @@
       <c r="B359" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C359" s="14" t="n">
+      <c r="C359" s="12" t="n">
         <v>43119</v>
       </c>
       <c r="D359" s="0" t="n">
@@ -7382,7 +7396,7 @@
       <c r="B360" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C360" s="14" t="n">
+      <c r="C360" s="12" t="n">
         <v>43119</v>
       </c>
       <c r="D360" s="0" t="n">
@@ -7396,7 +7410,7 @@
       <c r="B361" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C361" s="14" t="n">
+      <c r="C361" s="12" t="n">
         <v>43119</v>
       </c>
       <c r="D361" s="0" t="n">
@@ -7410,7 +7424,7 @@
       <c r="B362" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C362" s="14" t="n">
+      <c r="C362" s="12" t="n">
         <v>43119</v>
       </c>
       <c r="D362" s="0" t="n">
@@ -7424,7 +7438,7 @@
       <c r="B363" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C363" s="14" t="n">
+      <c r="C363" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D363" s="13" t="n">
@@ -7438,7 +7452,7 @@
       <c r="B364" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C364" s="14" t="n">
+      <c r="C364" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D364" s="13" t="n">
@@ -7452,7 +7466,7 @@
       <c r="B365" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C365" s="14" t="n">
+      <c r="C365" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D365" s="13" t="n">
@@ -7466,7 +7480,7 @@
       <c r="B366" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C366" s="14" t="n">
+      <c r="C366" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D366" s="13" t="n">
@@ -7480,7 +7494,7 @@
       <c r="B367" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C367" s="14" t="n">
+      <c r="C367" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D367" s="13" t="n">
@@ -7494,7 +7508,7 @@
       <c r="B368" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C368" s="14" t="n">
+      <c r="C368" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D368" s="0" t="n">
@@ -7508,7 +7522,7 @@
       <c r="B369" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C369" s="14" t="n">
+      <c r="C369" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D369" s="0" t="n">
@@ -7525,7 +7539,7 @@
       <c r="B370" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C370" s="14" t="n">
+      <c r="C370" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D370" s="13" t="n">
@@ -7539,7 +7553,7 @@
       <c r="B371" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C371" s="14" t="n">
+      <c r="C371" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D371" s="13" t="n">
@@ -7553,7 +7567,7 @@
       <c r="B372" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C372" s="14" t="n">
+      <c r="C372" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D372" s="13" t="n">
@@ -7567,7 +7581,7 @@
       <c r="B373" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C373" s="14" t="n">
+      <c r="C373" s="12" t="n">
         <v>43129</v>
       </c>
       <c r="D373" s="13" t="n">
@@ -7581,7 +7595,7 @@
       <c r="B374" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C374" s="14" t="n">
+      <c r="C374" s="12" t="n">
         <v>43132</v>
       </c>
       <c r="D374" s="0" t="n">
@@ -7599,7 +7613,7 @@
       <c r="B375" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C375" s="14" t="n">
+      <c r="C375" s="12" t="n">
         <v>43132</v>
       </c>
       <c r="D375" s="13" t="n">
@@ -7620,7 +7634,7 @@
       <c r="B376" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C376" s="14" t="n">
+      <c r="C376" s="12" t="n">
         <v>43132</v>
       </c>
       <c r="D376" s="13" t="n">
@@ -7641,7 +7655,7 @@
       <c r="B377" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C377" s="14" t="n">
+      <c r="C377" s="12" t="n">
         <v>43132</v>
       </c>
       <c r="D377" s="13" t="n">
@@ -7659,7 +7673,7 @@
       <c r="B378" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C378" s="14" t="n">
+      <c r="C378" s="12" t="n">
         <v>43132</v>
       </c>
       <c r="D378" s="13" t="n">
@@ -7677,7 +7691,7 @@
       <c r="B379" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C379" s="14" t="n">
+      <c r="C379" s="12" t="n">
         <v>43132</v>
       </c>
       <c r="D379" s="13" t="n">
@@ -7695,7 +7709,7 @@
       <c r="B380" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C380" s="14" t="n">
+      <c r="C380" s="12" t="n">
         <v>43133</v>
       </c>
       <c r="D380" s="13" t="n">
@@ -7713,7 +7727,7 @@
       <c r="B381" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C381" s="14" t="n">
+      <c r="C381" s="12" t="n">
         <v>43133</v>
       </c>
       <c r="D381" s="13" t="n">
@@ -7734,7 +7748,7 @@
       <c r="B382" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C382" s="14" t="n">
+      <c r="C382" s="12" t="n">
         <v>43133</v>
       </c>
       <c r="D382" s="13" t="n">
@@ -7752,7 +7766,7 @@
       <c r="B383" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C383" s="14" t="n">
+      <c r="C383" s="12" t="n">
         <v>43133</v>
       </c>
       <c r="D383" s="13" t="n">
@@ -7770,7 +7784,7 @@
       <c r="B384" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C384" s="14" t="n">
+      <c r="C384" s="12" t="n">
         <v>43133</v>
       </c>
       <c r="D384" s="13" t="n">
@@ -7788,7 +7802,7 @@
       <c r="B385" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C385" s="14" t="n">
+      <c r="C385" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D385" s="0" t="n">
@@ -7802,7 +7816,7 @@
       <c r="B386" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C386" s="14" t="n">
+      <c r="C386" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D386" s="13" t="n">
@@ -7816,7 +7830,7 @@
       <c r="B387" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C387" s="14" t="n">
+      <c r="C387" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D387" s="13" t="n">
@@ -7830,7 +7844,7 @@
       <c r="B388" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C388" s="14" t="n">
+      <c r="C388" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D388" s="13" t="n">
@@ -7844,7 +7858,7 @@
       <c r="B389" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C389" s="14" t="n">
+      <c r="C389" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D389" s="13" t="n">
@@ -7858,7 +7872,7 @@
       <c r="B390" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C390" s="14" t="n">
+      <c r="C390" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D390" s="13" t="n">
@@ -7872,7 +7886,7 @@
       <c r="B391" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C391" s="14" t="n">
+      <c r="C391" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D391" s="13" t="n">
@@ -7886,7 +7900,7 @@
       <c r="B392" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C392" s="14" t="n">
+      <c r="C392" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D392" s="13" t="n">
@@ -7900,7 +7914,7 @@
       <c r="B393" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C393" s="14" t="n">
+      <c r="C393" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D393" s="13" t="n">
@@ -7914,7 +7928,7 @@
       <c r="B394" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C394" s="14" t="n">
+      <c r="C394" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D394" s="13" t="n">
@@ -7928,7 +7942,7 @@
       <c r="B395" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C395" s="14" t="n">
+      <c r="C395" s="12" t="n">
         <v>43137</v>
       </c>
       <c r="D395" s="13" t="n">
@@ -7942,7 +7956,7 @@
       <c r="B396" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C396" s="14" t="n">
+      <c r="C396" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D396" s="0" t="n">
@@ -7956,7 +7970,7 @@
       <c r="B397" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C397" s="14" t="n">
+      <c r="C397" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D397" s="13" t="n">
@@ -7970,7 +7984,7 @@
       <c r="B398" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C398" s="14" t="n">
+      <c r="C398" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D398" s="13" t="n">
@@ -7984,7 +7998,7 @@
       <c r="B399" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C399" s="14" t="n">
+      <c r="C399" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D399" s="13" t="n">
@@ -7998,7 +8012,7 @@
       <c r="B400" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C400" s="14" t="n">
+      <c r="C400" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D400" s="13" t="n">
@@ -8012,7 +8026,7 @@
       <c r="B401" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C401" s="14" t="n">
+      <c r="C401" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D401" s="13" t="n">
@@ -8026,7 +8040,7 @@
       <c r="B402" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C402" s="14" t="n">
+      <c r="C402" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D402" s="13" t="n">
@@ -8040,7 +8054,7 @@
       <c r="B403" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C403" s="14" t="n">
+      <c r="C403" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D403" s="13" t="n">
@@ -8054,7 +8068,7 @@
       <c r="B404" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C404" s="14" t="n">
+      <c r="C404" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D404" s="13" t="n">
@@ -8068,7 +8082,7 @@
       <c r="B405" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C405" s="14" t="n">
+      <c r="C405" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D405" s="13" t="n">
@@ -8082,7 +8096,7 @@
       <c r="B406" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C406" s="14" t="n">
+      <c r="C406" s="12" t="n">
         <v>43146</v>
       </c>
       <c r="D406" s="13" t="n">
@@ -8096,7 +8110,7 @@
       <c r="B407" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C407" s="14" t="n">
+      <c r="C407" s="12" t="n">
         <v>43147</v>
       </c>
       <c r="D407" s="0" t="n">
@@ -8110,7 +8124,7 @@
       <c r="B408" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C408" s="14" t="n">
+      <c r="C408" s="12" t="n">
         <v>43147</v>
       </c>
       <c r="D408" s="13" t="n">
@@ -8124,7 +8138,7 @@
       <c r="B409" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C409" s="14" t="n">
+      <c r="C409" s="12" t="n">
         <v>43147</v>
       </c>
       <c r="D409" s="13" t="n">
@@ -8138,7 +8152,7 @@
       <c r="B410" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C410" s="14" t="n">
+      <c r="C410" s="12" t="n">
         <v>43147</v>
       </c>
       <c r="D410" s="13" t="n">
@@ -8152,7 +8166,7 @@
       <c r="B411" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C411" s="14" t="n">
+      <c r="C411" s="12" t="n">
         <v>43147</v>
       </c>
       <c r="D411" s="13" t="n">
@@ -8166,7 +8180,7 @@
       <c r="B412" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C412" s="14" t="n">
+      <c r="C412" s="12" t="n">
         <v>43147</v>
       </c>
       <c r="D412" s="13" t="n">
@@ -8180,7 +8194,7 @@
       <c r="B413" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C413" s="14" t="n">
+      <c r="C413" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D413" s="0" t="n">
@@ -8194,7 +8208,7 @@
       <c r="B414" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C414" s="14" t="n">
+      <c r="C414" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D414" s="13" t="n">
@@ -8208,7 +8222,7 @@
       <c r="B415" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C415" s="14" t="n">
+      <c r="C415" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D415" s="13" t="n">
@@ -8222,7 +8236,7 @@
       <c r="B416" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C416" s="14" t="n">
+      <c r="C416" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D416" s="13" t="n">
@@ -8236,7 +8250,7 @@
       <c r="B417" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C417" s="14" t="n">
+      <c r="C417" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D417" s="13" t="n">
@@ -8250,7 +8264,7 @@
       <c r="B418" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C418" s="14" t="n">
+      <c r="C418" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D418" s="13" t="n">
@@ -8264,7 +8278,7 @@
       <c r="B419" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C419" s="14" t="n">
+      <c r="C419" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D419" s="13" t="n">
@@ -8278,7 +8292,7 @@
       <c r="B420" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C420" s="14" t="n">
+      <c r="C420" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D420" s="13" t="n">
@@ -8292,7 +8306,7 @@
       <c r="B421" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C421" s="14" t="n">
+      <c r="C421" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D421" s="13" t="n">
@@ -8306,7 +8320,7 @@
       <c r="B422" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C422" s="14" t="n">
+      <c r="C422" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D422" s="13" t="n">
@@ -8320,7 +8334,7 @@
       <c r="B423" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C423" s="14" t="n">
+      <c r="C423" s="12" t="n">
         <v>43153</v>
       </c>
       <c r="D423" s="13" t="n">
@@ -8334,7 +8348,7 @@
       <c r="B424" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C424" s="14" t="n">
+      <c r="C424" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D424" s="0" t="n">
@@ -8348,7 +8362,7 @@
       <c r="B425" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C425" s="14" t="n">
+      <c r="C425" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D425" s="13" t="n">
@@ -8362,7 +8376,7 @@
       <c r="B426" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C426" s="14" t="n">
+      <c r="C426" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D426" s="13" t="n">
@@ -8376,7 +8390,7 @@
       <c r="B427" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C427" s="14" t="n">
+      <c r="C427" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D427" s="13" t="n">
@@ -8390,7 +8404,7 @@
       <c r="B428" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C428" s="14" t="n">
+      <c r="C428" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D428" s="13" t="n">
@@ -8404,7 +8418,7 @@
       <c r="B429" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C429" s="14" t="n">
+      <c r="C429" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D429" s="13" t="n">
@@ -8418,7 +8432,7 @@
       <c r="B430" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C430" s="14" t="n">
+      <c r="C430" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D430" s="13" t="n">
@@ -8432,7 +8446,7 @@
       <c r="B431" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C431" s="14" t="n">
+      <c r="C431" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D431" s="13" t="n">
@@ -8446,7 +8460,7 @@
       <c r="B432" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C432" s="14" t="n">
+      <c r="C432" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D432" s="13" t="n">
@@ -8460,7 +8474,7 @@
       <c r="B433" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C433" s="14" t="n">
+      <c r="C433" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D433" s="13" t="n">
@@ -8474,7 +8488,7 @@
       <c r="B434" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C434" s="14" t="n">
+      <c r="C434" s="12" t="n">
         <v>43159</v>
       </c>
       <c r="D434" s="13" t="n">
@@ -8488,7 +8502,7 @@
       <c r="B435" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C435" s="14" t="n">
+      <c r="C435" s="12" t="n">
         <v>43167</v>
       </c>
       <c r="D435" s="13" t="n">
@@ -8502,7 +8516,7 @@
       <c r="B436" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C436" s="14" t="n">
+      <c r="C436" s="12" t="n">
         <v>43167</v>
       </c>
       <c r="D436" s="13" t="n">
@@ -8516,7 +8530,7 @@
       <c r="B437" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C437" s="14" t="n">
+      <c r="C437" s="12" t="n">
         <v>43167</v>
       </c>
       <c r="D437" s="13" t="n">
@@ -8530,7 +8544,7 @@
       <c r="B438" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C438" s="14" t="n">
+      <c r="C438" s="12" t="n">
         <v>43167</v>
       </c>
       <c r="D438" s="13" t="n">
@@ -8547,7 +8561,7 @@
       <c r="B439" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C439" s="14" t="n">
+      <c r="C439" s="12" t="n">
         <v>43167</v>
       </c>
       <c r="D439" s="13" t="n">
@@ -8561,7 +8575,7 @@
       <c r="B440" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C440" s="14" t="n">
+      <c r="C440" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D440" s="13" t="n">
@@ -8575,7 +8589,7 @@
       <c r="B441" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C441" s="14" t="n">
+      <c r="C441" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D441" s="13" t="n">
@@ -8589,7 +8603,7 @@
       <c r="B442" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C442" s="14" t="n">
+      <c r="C442" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D442" s="13" t="n">
@@ -8603,7 +8617,7 @@
       <c r="B443" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C443" s="14" t="n">
+      <c r="C443" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D443" s="13" t="n">
@@ -8617,7 +8631,7 @@
       <c r="B444" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C444" s="14" t="n">
+      <c r="C444" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D444" s="0" t="n">
@@ -8631,7 +8645,7 @@
       <c r="B445" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C445" s="14" t="n">
+      <c r="C445" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D445" s="13" t="n">
@@ -8645,7 +8659,7 @@
       <c r="B446" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C446" s="14" t="n">
+      <c r="C446" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D446" s="13" t="n">
@@ -8659,7 +8673,7 @@
       <c r="B447" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C447" s="14" t="n">
+      <c r="C447" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D447" s="13" t="n">
@@ -8673,7 +8687,7 @@
       <c r="B448" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C448" s="14" t="n">
+      <c r="C448" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D448" s="13" t="n">
@@ -8687,7 +8701,7 @@
       <c r="B449" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C449" s="14" t="n">
+      <c r="C449" s="12" t="n">
         <v>43172</v>
       </c>
       <c r="D449" s="13" t="n">
@@ -8701,7 +8715,7 @@
       <c r="B450" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C450" s="14" t="n">
+      <c r="C450" s="12" t="n">
         <v>43178</v>
       </c>
       <c r="D450" s="13" t="n">
@@ -8715,7 +8729,7 @@
       <c r="B451" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C451" s="14" t="n">
+      <c r="C451" s="12" t="n">
         <v>43178</v>
       </c>
       <c r="D451" s="13" t="n">
@@ -8732,7 +8746,7 @@
       <c r="B452" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C452" s="14" t="n">
+      <c r="C452" s="12" t="n">
         <v>43178</v>
       </c>
       <c r="D452" s="13" t="n">
@@ -8746,7 +8760,7 @@
       <c r="B453" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C453" s="14" t="n">
+      <c r="C453" s="12" t="n">
         <v>43178</v>
       </c>
       <c r="D453" s="13" t="n">
@@ -8756,7 +8770,1666 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" s="12" t="n">
+        <v>43180</v>
+      </c>
+      <c r="D454" s="14" t="n">
+        <v>2215.2</v>
+      </c>
+      <c r="E454" s="14"/>
+      <c r="F454" s="14"/>
+    </row>
+    <row r="455" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B455" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C455" s="12" t="n">
+        <v>43180</v>
+      </c>
+      <c r="D455" s="15" t="n">
+        <v>8081.03</v>
+      </c>
+      <c r="E455" s="14"/>
+      <c r="F455" s="15" t="n">
+        <v>8081.03</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C456" s="12" t="n">
+        <v>43180</v>
+      </c>
+      <c r="D456" s="15" t="n">
+        <v>43480.2</v>
+      </c>
+      <c r="E456" s="14"/>
+      <c r="F456" s="14"/>
+    </row>
+    <row r="457" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C457" s="12" t="n">
+        <v>43180</v>
+      </c>
+      <c r="D457" s="15" t="n">
+        <v>6343.67</v>
+      </c>
+      <c r="E457" s="14"/>
+      <c r="F457" s="14"/>
+    </row>
+    <row r="458" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C458" s="12" t="n">
+        <v>43180</v>
+      </c>
+      <c r="D458" s="15" t="n">
+        <v>12344.62</v>
+      </c>
+      <c r="E458" s="14"/>
+      <c r="F458" s="14"/>
+    </row>
+    <row r="459" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C459" s="12" t="n">
+        <v>43180</v>
+      </c>
+      <c r="D459" s="15" t="n">
+        <v>11119.69</v>
+      </c>
+      <c r="E459" s="14"/>
+      <c r="F459" s="14"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C460" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D460" s="0" t="n">
+        <v>2208.96</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C461" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D461" s="0" t="n">
+        <v>42520.1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D462" s="0" t="n">
+        <v>6349.5</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D463" s="0" t="n">
+        <v>12589.79</v>
+      </c>
+      <c r="E463" s="0" t="n">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C464" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D464" s="0" t="n">
+        <v>11086.19</v>
+      </c>
+      <c r="F464" s="0" t="n">
+        <v>11086.19</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B465" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C465" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D465" s="13" t="n">
+        <v>14871.98</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C466" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D466" s="13" t="n">
+        <v>57532.57</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C467" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D467" s="13" t="n">
+        <v>12636.89</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B468" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C468" s="12" t="n">
+        <v>43185</v>
+      </c>
+      <c r="D468" s="13" t="n">
+        <v>25972.11</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B469" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C469" s="12" t="n">
+        <v>43186</v>
+      </c>
+      <c r="D469" s="13" t="n">
+        <v>14792.87</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C470" s="12" t="n">
+        <v>43186</v>
+      </c>
+      <c r="D470" s="13" t="n">
+        <v>56704.28</v>
+      </c>
+      <c r="F470" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C471" s="12" t="n">
+        <v>43186</v>
+      </c>
+      <c r="D471" s="13" t="n">
+        <v>12640.52</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B472" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" s="12" t="n">
+        <v>43186</v>
+      </c>
+      <c r="D472" s="13" t="n">
+        <v>25799.41</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B473" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C473" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D473" s="13" t="n">
+        <v>14790.08</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C474" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D474" s="13" t="n">
+        <v>55422.82</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C475" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D475" s="13" t="n">
+        <v>12651.43</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B476" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C476" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D476" s="13" t="n">
+        <v>25666.92</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>2227.68</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C478" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D478" s="13" t="n">
+        <v>42089.86</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D479" s="13" t="n">
+        <v>6357.18</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C480" s="12" t="n">
+        <v>43189</v>
+      </c>
+      <c r="D480" s="13" t="n">
+        <v>23540.7</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" s="12" t="n">
+        <v>43192</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>2241.2</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C482" s="12" t="n">
+        <v>43192</v>
+      </c>
+      <c r="D482" s="13" t="n">
+        <v>42089.86</v>
+      </c>
+      <c r="H482" s="13"/>
+    </row>
+    <row r="483" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C483" s="12" t="n">
+        <v>43192</v>
+      </c>
+      <c r="D483" s="13" t="n">
+        <v>6357.18</v>
+      </c>
+      <c r="H483" s="13"/>
+    </row>
+    <row r="484" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C484" s="12" t="n">
+        <v>43192</v>
+      </c>
+      <c r="D484" s="13" t="n">
+        <v>23540.7</v>
+      </c>
+      <c r="E484" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H484" s="13"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C485" s="12" t="n">
+        <v>43192</v>
+      </c>
+      <c r="D485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E485" s="0" t="n">
+        <v>2452.14</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C486" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D486" s="0" t="n">
+        <v>2452.14</v>
+      </c>
+      <c r="E486" s="0" t="n">
+        <v>1981.07</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B487" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C487" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D487" s="13" t="n">
+        <v>14847.47</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C488" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D488" s="13" t="n">
+        <v>55981.37</v>
+      </c>
+      <c r="E488" s="13"/>
+      <c r="F488" s="0" t="n">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C489" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D489" s="13" t="n">
+        <v>12655.07</v>
+      </c>
+      <c r="E489" s="13"/>
+    </row>
+    <row r="490" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B490" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C490" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D490" s="13" t="n">
+        <v>26419.8</v>
+      </c>
+      <c r="E490" s="13"/>
+    </row>
+    <row r="491" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C491" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D491" s="13" t="n">
+        <v>42489.65</v>
+      </c>
+      <c r="F491" s="0" t="n">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C492" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D492" s="13" t="n">
+        <v>6359.1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" s="12" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D493" s="13" t="n">
+        <f aca="false">23899.68+5000</f>
+        <v>28899.68</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C494" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D494" s="13" t="n">
+        <v>35843.43</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C495" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D495" s="13" t="n">
+        <v>6364.87</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D496" s="13" t="n">
+        <v>28681.44</v>
+      </c>
+      <c r="E496" s="0" t="n">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C497" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D497" s="13" t="n">
+        <v>4428.45</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C498" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D498" s="0" t="n">
+        <v>2238.08</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B499" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C499" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D499" s="13" t="n">
+        <v>14845.64</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C500" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D500" s="13" t="n">
+        <v>40449.67</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C501" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D501" s="13" t="n">
+        <v>12665.99</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" s="12" t="n">
+        <v>43196</v>
+      </c>
+      <c r="D502" s="13" t="n">
+        <v>25826.54</v>
+      </c>
+      <c r="E502" s="0" t="n">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B503" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C503" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D503" s="13" t="n">
+        <v>14810.05</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C504" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D504" s="13" t="n">
+        <v>39861.41</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D505" s="13" t="n">
+        <v>12673.28</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C506" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D506" s="0" t="n">
+        <f aca="false">26054.46 + 14700</f>
+        <v>40754.46</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C507" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D507" s="13" t="n">
+        <v>35398.17</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D508" s="13" t="n">
+        <v>6368.72</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C509" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D509" s="0" t="n">
+        <f aca="false">28934.16+6800</f>
+        <v>35734.16</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C510" s="16" t="n">
+        <v>43200</v>
+      </c>
+      <c r="D510" s="13" t="n">
+        <v>4429.53</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C511" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D511" s="13" t="n">
+        <v>36098.88</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C512" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D512" s="13" t="n">
+        <v>6372.57</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D513" s="13" t="n">
+        <v>35765.08</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C514" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D514" s="13" t="n">
+        <v>4432.84</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B515" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C515" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D515" s="13" t="n">
+        <v>14722.77</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C516" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D516" s="13" t="n">
+        <v>40567.77</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C517" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D517" s="13" t="n">
+        <v>12680.57</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B518" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D518" s="13" t="n">
+        <v>40502.99</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C519" s="16" t="n">
+        <v>43202</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <f aca="false">2181.83+77.18+1.77</f>
+        <v>2260.78</v>
+      </c>
+      <c r="F519" s="0" t="n">
+        <f aca="false">2181.83+77.18+1.77</f>
+        <v>2260.78</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C520" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D520" s="13" t="n">
+        <v>36526.85</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C521" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D521" s="13" t="n">
+        <v>6382.21</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C522" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D522" s="13" t="n">
+        <v>36081.85</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C523" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D523" s="13" t="n">
+        <v>4438.34</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C524" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D524" s="13" t="n">
+        <v>14600.27</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C525" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D525" s="13" t="n">
+        <v>41230.66</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C526" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D526" s="13" t="n">
+        <v>12698.82</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B527" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527" s="16" t="n">
+        <v>43209</v>
+      </c>
+      <c r="D527" s="13" t="n">
+        <v>41218.12</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C528" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D528" s="13" t="n">
+        <v>36382.89</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C529" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D529" s="13" t="n">
+        <v>6386.07</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D530" s="13" t="n">
+        <v>36508.29</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C531" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D531" s="13" t="n">
+        <v>4441.66</v>
+      </c>
+      <c r="F531" s="13" t="n">
+        <v>4441.66</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B532" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C532" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D532" s="13" t="n">
+        <v>14805.91</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C533" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D533" s="13" t="n">
+        <v>41066.16</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C534" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D534" s="13" t="n">
+        <v>12706.12</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B535" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" s="16" t="n">
+        <v>43213</v>
+      </c>
+      <c r="D535" s="13" t="n">
+        <v>41704.81</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C536" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D536" s="13" t="n">
+        <v>35908.81</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C537" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D537" s="13" t="n">
+        <v>6399.6</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D538" s="13" t="n">
+        <v>36746.2</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B539" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C539" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D539" s="13" t="n">
+        <v>14684.72</v>
+      </c>
+      <c r="F539" s="13"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C540" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D540" s="13" t="n">
+        <v>40524.41</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C541" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D541" s="13" t="n">
+        <v>12731.73</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B542" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" s="16" t="n">
+        <v>43223</v>
+      </c>
+      <c r="D542" s="13" t="n">
+        <v>41976.36</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B543" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C543" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D543" s="13" t="n">
+        <v>14052.97</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C544" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D544" s="13" t="n">
+        <v>40759.45</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C545" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D545" s="13" t="n">
+        <v>12742.72</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B546" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D546" s="13" t="n">
+        <v>40643.1</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C547" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D547" s="13" t="n">
+        <v>36120.34</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C548" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D548" s="13" t="n">
+        <v>6405.41</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549" s="16" t="n">
+        <v>43228</v>
+      </c>
+      <c r="D549" s="13" t="n">
+        <v>35578.07</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B550" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C550" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D550" s="13" t="n">
+        <v>14332.51</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C551" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D551" s="13" t="n">
+        <v>41474.83</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C552" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D552" s="13" t="n">
+        <v>12753.71</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B553" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D553" s="13" t="n">
+        <v>42092.09</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C554" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D554" s="13" t="n">
+        <v>36758.82</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C555" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D555" s="13" t="n">
+        <v>6411.22</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" s="16" t="n">
+        <v>43231</v>
+      </c>
+      <c r="D556" s="13" t="n">
+        <v>36847.6</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C557" s="16" t="n">
+        <v>43236</v>
+      </c>
+      <c r="D557" s="13" t="n">
+        <v>36274.78</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C558" s="16" t="n">
+        <v>43236</v>
+      </c>
+      <c r="D558" s="13" t="n">
+        <v>6417.04</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" s="16" t="n">
+        <v>43236</v>
+      </c>
+      <c r="D559" s="13" t="n">
+        <v>36660.86</v>
+      </c>
+      <c r="E559" s="0" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B560" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C560" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D560" s="13" t="n">
+        <v>13365.56</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C561" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D561" s="13" t="n">
+        <v>41600.94</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C562" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D562" s="13" t="n">
+        <v>12812.53</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B563" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C563" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D563" s="13" t="n">
+        <v>37626.12</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C564" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D564" s="13" t="n">
+        <v>36885.59</v>
+      </c>
+      <c r="E564" s="0" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C565" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D565" s="13" t="n">
+        <v>6442.31</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C566" s="17" t="n">
+        <v>43255</v>
+      </c>
+      <c r="D566" s="13" t="n">
+        <v>35186.86</v>
+      </c>
+    </row>
+    <row r="65527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="25">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -296,9 +296,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E565" activeCellId="0" sqref="E565"/>
+      <selection pane="bottomLeft" activeCell="D585" activeCellId="0" sqref="D585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10326,7 +10326,7 @@
       <c r="B560" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C560" s="17" t="n">
+      <c r="C560" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D560" s="13" t="n">
@@ -10340,7 +10340,7 @@
       <c r="B561" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C561" s="17" t="n">
+      <c r="C561" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D561" s="13" t="n">
@@ -10354,7 +10354,7 @@
       <c r="B562" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C562" s="17" t="n">
+      <c r="C562" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D562" s="13" t="n">
@@ -10368,7 +10368,7 @@
       <c r="B563" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C563" s="17" t="n">
+      <c r="C563" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D563" s="13" t="n">
@@ -10382,7 +10382,7 @@
       <c r="B564" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C564" s="17" t="n">
+      <c r="C564" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D564" s="13" t="n">
@@ -10399,7 +10399,7 @@
       <c r="B565" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C565" s="17" t="n">
+      <c r="C565" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D565" s="13" t="n">
@@ -10413,11 +10413,259 @@
       <c r="B566" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C566" s="17" t="n">
+      <c r="C566" s="16" t="n">
         <v>43255</v>
       </c>
       <c r="D566" s="13" t="n">
         <v>35186.86</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C567" s="16" t="n">
+        <v>43257</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>41796.41</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" s="16" t="n">
+        <v>43257</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>6444.26</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C569" s="16" t="n">
+        <v>43257</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>35242.19</v>
+      </c>
+      <c r="E569" s="0" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C570" s="16" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D570" s="13" t="n">
+        <v>42176.62</v>
+      </c>
+      <c r="E570" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C571" s="16" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D571" s="0" t="n">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" s="16" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D572" s="13" t="n">
+        <f aca="false">33543.43+1600</f>
+        <v>35143.43</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B573" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C573" s="16" t="n">
+        <v>43265</v>
+      </c>
+      <c r="D573" s="13" t="n">
+        <v>12603.04</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C574" s="16" t="n">
+        <v>43265</v>
+      </c>
+      <c r="D574" s="13" t="n">
+        <v>42445.22</v>
+      </c>
+      <c r="E574" s="0" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C575" s="16" t="n">
+        <v>43265</v>
+      </c>
+      <c r="D575" s="13" t="n">
+        <v>12838.35</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B576" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" s="16" t="n">
+        <v>43265</v>
+      </c>
+      <c r="D576" s="13" t="n">
+        <v>34312.84</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C577" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D577" s="13" t="n">
+        <v>42392.38</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C578" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D578" s="13" t="n">
+        <v>6483.34</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D579" s="13" t="n">
+        <v>35036.76</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B580" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C580" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D580" s="13" t="n">
+        <v>12603.04</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C581" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D581" s="13" t="n">
+        <v>44540.4</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C582" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D582" s="13" t="n">
+        <v>12890.14</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B583" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" s="17" t="n">
+        <v>43285</v>
+      </c>
+      <c r="D583" s="13" t="n">
+        <v>35678.53</v>
       </c>
     </row>
     <row r="65527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="25">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -104,12 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -203,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,24 +255,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -296,9 +287,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D585" activeCellId="0" sqref="D585"/>
+      <selection pane="bottomLeft" activeCell="E592" activeCellId="0" sqref="E592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6237,6 +6228,9 @@
       <c r="D278" s="3" t="n">
         <v>12370.49</v>
       </c>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
@@ -6251,6 +6245,9 @@
       <c r="D279" s="3" t="n">
         <v>3619.14</v>
       </c>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
     </row>
     <row r="280" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
@@ -6265,6 +6262,9 @@
       <c r="D280" s="3" t="n">
         <v>8571.18</v>
       </c>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
@@ -6279,6 +6279,9 @@
       <c r="D281" s="3" t="n">
         <v>13502.06</v>
       </c>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
     </row>
     <row r="282" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
@@ -6293,6 +6296,9 @@
       <c r="D282" s="1" t="n">
         <v>44187.42</v>
       </c>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
@@ -6307,6 +6313,9 @@
       <c r="D283" s="1" t="n">
         <v>6212.89</v>
       </c>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
@@ -6321,6 +6330,9 @@
       <c r="D284" s="1" t="n">
         <v>10309.61</v>
       </c>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
@@ -6335,6 +6347,9 @@
       <c r="D285" s="1" t="n">
         <v>10168.85</v>
       </c>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
@@ -6349,6 +6364,9 @@
       <c r="D286" s="1" t="n">
         <v>1706.64</v>
       </c>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
@@ -6363,10 +6381,11 @@
       <c r="D287" s="3" t="n">
         <v>44035.72</v>
       </c>
-      <c r="F287" s="0" t="n">
+      <c r="E287" s="11"/>
+      <c r="F287" s="11" t="n">
         <v>3500</v>
       </c>
-      <c r="G287" s="0" t="n">
+      <c r="G287" s="11" t="n">
         <f aca="false">D287-F287</f>
         <v>40535.72</v>
       </c>
@@ -6384,6 +6403,9 @@
       <c r="D288" s="3" t="n">
         <v>6216.94</v>
       </c>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
@@ -6398,6 +6420,9 @@
       <c r="D289" s="3" t="n">
         <v>10213.64</v>
       </c>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
@@ -6412,6 +6437,9 @@
       <c r="D290" s="3" t="n">
         <v>10106.82</v>
       </c>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
@@ -6426,6 +6454,9 @@
       <c r="D291" s="11" t="n">
         <v>1708.72</v>
       </c>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
@@ -6440,6 +6471,9 @@
       <c r="D292" s="3" t="n">
         <v>40909.62</v>
       </c>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
@@ -6454,6 +6488,9 @@
       <c r="D293" s="3" t="n">
         <v>6225.03</v>
       </c>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
@@ -6468,6 +6505,9 @@
       <c r="D294" s="3" t="n">
         <v>10784.16</v>
       </c>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
@@ -6482,6 +6522,9 @@
       <c r="D295" s="3" t="n">
         <v>10250.46</v>
       </c>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
@@ -6496,6 +6539,9 @@
       <c r="D296" s="11" t="n">
         <v>2100.8</v>
       </c>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
@@ -6510,6 +6556,9 @@
       <c r="D297" s="3" t="n">
         <v>12401.14</v>
       </c>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
     </row>
     <row r="298" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
@@ -6524,9 +6573,11 @@
       <c r="D298" s="3" t="n">
         <v>3657.29</v>
       </c>
-      <c r="F298" s="0" t="n">
+      <c r="E298" s="11"/>
+      <c r="F298" s="11" t="n">
         <v>2500</v>
       </c>
+      <c r="G298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
@@ -6541,6 +6592,9 @@
       <c r="D299" s="3" t="n">
         <v>8987.28</v>
       </c>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
@@ -6555,6 +6609,9 @@
       <c r="D300" s="3" t="n">
         <v>13616.9</v>
       </c>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
@@ -6569,6 +6626,9 @@
       <c r="D301" s="3" t="n">
         <v>44837.37</v>
       </c>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
@@ -6583,6 +6643,9 @@
       <c r="D302" s="3" t="n">
         <v>12408.81</v>
       </c>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
@@ -6597,6 +6660,9 @@
       <c r="D303" s="3" t="n">
         <v>1141.02</v>
       </c>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
     </row>
     <row r="304" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
@@ -6611,6 +6677,9 @@
       <c r="D304" s="3" t="n">
         <v>9057.93</v>
       </c>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
@@ -6625,6 +6694,9 @@
       <c r="D305" s="3" t="n">
         <v>13865.33</v>
       </c>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
@@ -6639,6 +6711,9 @@
       <c r="D306" s="3" t="n">
         <v>44872.66</v>
       </c>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
@@ -6653,6 +6728,9 @@
       <c r="D307" s="3" t="n">
         <v>40986.72</v>
       </c>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
@@ -6667,6 +6745,9 @@
       <c r="D308" s="3" t="n">
         <v>6229.08</v>
       </c>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
@@ -6681,6 +6762,9 @@
       <c r="D309" s="3" t="n">
         <v>10869.01</v>
       </c>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
     </row>
     <row r="310" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
@@ -6695,6 +6779,9 @@
       <c r="D310" s="3" t="n">
         <v>10437.48</v>
       </c>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
+      <c r="G310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
@@ -6709,6 +6796,9 @@
       <c r="D311" s="11" t="n">
         <v>2190.24</v>
       </c>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
@@ -6721,9 +6811,11 @@
         <v>43097</v>
       </c>
       <c r="D312" s="11"/>
-      <c r="E312" s="13" t="n">
+      <c r="E312" s="3" t="n">
         <v>1207.18</v>
       </c>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
@@ -6738,6 +6830,9 @@
       <c r="D313" s="3" t="n">
         <v>41017.55</v>
       </c>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
@@ -6752,6 +6847,9 @@
       <c r="D314" s="3" t="n">
         <v>6231.1</v>
       </c>
+      <c r="E314" s="11"/>
+      <c r="F314" s="11"/>
+      <c r="G314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
@@ -6766,6 +6864,9 @@
       <c r="D315" s="11" t="n">
         <v>11019.15</v>
       </c>
+      <c r="E315" s="11"/>
+      <c r="F315" s="11"/>
+      <c r="G315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
@@ -6780,6 +6881,9 @@
       <c r="D316" s="3" t="n">
         <v>10471.37</v>
       </c>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
@@ -6794,6 +6898,9 @@
       <c r="D317" s="11" t="n">
         <v>2119.52</v>
       </c>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="11"/>
     </row>
     <row r="318" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
@@ -6808,6 +6915,9 @@
       <c r="D318" s="11" t="n">
         <v>2138.24</v>
       </c>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
+      <c r="G318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
@@ -6822,6 +6932,9 @@
       <c r="D319" s="3" t="n">
         <v>1207.18</v>
       </c>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
@@ -6836,6 +6949,9 @@
       <c r="D320" s="3" t="n">
         <v>41003.31</v>
       </c>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
+      <c r="G320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
@@ -6850,6 +6966,9 @@
       <c r="D321" s="3" t="n">
         <v>6235.16</v>
       </c>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
     </row>
     <row r="322" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
@@ -6864,6 +6983,9 @@
       <c r="D322" s="3" t="n">
         <v>11200.38</v>
       </c>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
@@ -6878,6 +7000,9 @@
       <c r="D323" s="3" t="n">
         <v>10685.49</v>
       </c>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
     </row>
     <row r="324" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
@@ -6892,6 +7017,9 @@
       <c r="D324" s="3" t="n">
         <v>14289.78</v>
       </c>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
@@ -6906,6 +7034,9 @@
       <c r="D325" s="3" t="n">
         <v>44978.23</v>
       </c>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
     </row>
     <row r="326" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
@@ -6920,6 +7051,9 @@
       <c r="D326" s="3" t="n">
         <v>12428.02</v>
       </c>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
@@ -6934,6 +7068,9 @@
       <c r="D327" s="3" t="n">
         <v>1154.76</v>
       </c>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
     </row>
     <row r="328" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
@@ -6948,9 +7085,11 @@
       <c r="D328" s="3" t="n">
         <v>9574.03</v>
       </c>
-      <c r="E328" s="0" t="n">
+      <c r="E328" s="11" t="n">
         <v>5000</v>
       </c>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
@@ -6965,6 +7104,9 @@
       <c r="D329" s="11" t="n">
         <v>2260</v>
       </c>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
     </row>
     <row r="330" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
@@ -6979,6 +7121,9 @@
       <c r="D330" s="3" t="n">
         <v>1205.33</v>
       </c>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
@@ -6993,6 +7138,9 @@
       <c r="D331" s="3" t="n">
         <v>41126.32</v>
       </c>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
     </row>
     <row r="332" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
@@ -7007,6 +7155,9 @@
       <c r="D332" s="3" t="n">
         <v>6239.22</v>
       </c>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
@@ -7021,6 +7172,9 @@
       <c r="D333" s="3" t="n">
         <v>11488.3</v>
       </c>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
     </row>
     <row r="334" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
@@ -7035,6 +7189,9 @@
       <c r="D334" s="3" t="n">
         <v>10782.21</v>
       </c>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
@@ -7046,9 +7203,12 @@
       <c r="C335" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D335" s="13" t="n">
+      <c r="D335" s="3" t="n">
         <v>14405.73</v>
       </c>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
     </row>
     <row r="336" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
@@ -7060,9 +7220,12 @@
       <c r="C336" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D336" s="13" t="n">
+      <c r="D336" s="3" t="n">
         <v>45753.28</v>
       </c>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
+      <c r="G336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
@@ -7074,9 +7237,12 @@
       <c r="C337" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D337" s="13" t="n">
+      <c r="D337" s="3" t="n">
         <v>12443.41</v>
       </c>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
     </row>
     <row r="338" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
@@ -7088,9 +7254,12 @@
       <c r="C338" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D338" s="13" t="n">
+      <c r="D338" s="3" t="n">
         <v>1167.36</v>
       </c>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
@@ -7102,9 +7271,12 @@
       <c r="C339" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D339" s="13" t="n">
+      <c r="D339" s="3" t="n">
         <v>14699.76</v>
       </c>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11"/>
+      <c r="G339" s="11"/>
     </row>
     <row r="340" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
@@ -7116,9 +7288,12 @@
       <c r="C340" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D340" s="0" t="n">
+      <c r="D340" s="11" t="n">
         <v>2137.2</v>
       </c>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
@@ -7130,9 +7305,12 @@
       <c r="C341" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D341" s="13" t="n">
+      <c r="D341" s="3" t="n">
         <v>1206.94</v>
       </c>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
     </row>
     <row r="342" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
@@ -7144,9 +7322,12 @@
       <c r="C342" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D342" s="13" t="n">
+      <c r="D342" s="3" t="n">
         <v>41843.12</v>
       </c>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
@@ -7158,9 +7339,12 @@
       <c r="C343" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D343" s="13" t="n">
+      <c r="D343" s="3" t="n">
         <v>6247.34</v>
       </c>
+      <c r="E343" s="11"/>
+      <c r="F343" s="11"/>
+      <c r="G343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
@@ -7172,9 +7356,12 @@
       <c r="C344" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D344" s="13" t="n">
+      <c r="D344" s="3" t="n">
         <v>11634.64</v>
       </c>
+      <c r="E344" s="11"/>
+      <c r="F344" s="11"/>
+      <c r="G344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
@@ -7186,9 +7373,12 @@
       <c r="C345" s="12" t="n">
         <v>43110</v>
       </c>
-      <c r="D345" s="13" t="n">
+      <c r="D345" s="3" t="n">
         <v>10872.17</v>
       </c>
+      <c r="E345" s="11"/>
+      <c r="F345" s="11"/>
+      <c r="G345" s="11"/>
     </row>
     <row r="346" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
@@ -7200,9 +7390,12 @@
       <c r="C346" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D346" s="0" t="n">
+      <c r="D346" s="11" t="n">
         <v>2096.64</v>
       </c>
+      <c r="E346" s="11"/>
+      <c r="F346" s="11"/>
+      <c r="G346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
@@ -7214,9 +7407,12 @@
       <c r="C347" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D347" s="13" t="n">
+      <c r="D347" s="3" t="n">
         <v>1207.9</v>
       </c>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11"/>
+      <c r="G347" s="11"/>
     </row>
     <row r="348" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
@@ -7228,9 +7424,12 @@
       <c r="C348" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D348" s="13" t="n">
+      <c r="D348" s="3" t="n">
         <v>42015.06</v>
       </c>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
+      <c r="G348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
@@ -7242,9 +7441,12 @@
       <c r="C349" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D349" s="13" t="n">
+      <c r="D349" s="3" t="n">
         <v>6253.44</v>
       </c>
+      <c r="E349" s="11"/>
+      <c r="F349" s="11"/>
+      <c r="G349" s="11"/>
     </row>
     <row r="350" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
@@ -7256,9 +7458,12 @@
       <c r="C350" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D350" s="13" t="n">
+      <c r="D350" s="3" t="n">
         <v>11562.53</v>
       </c>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
@@ -7270,9 +7475,12 @@
       <c r="C351" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D351" s="13" t="n">
+      <c r="D351" s="3" t="n">
         <v>10867.03</v>
       </c>
+      <c r="E351" s="11"/>
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
     </row>
     <row r="352" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
@@ -7284,9 +7492,12 @@
       <c r="C352" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D352" s="13" t="n">
+      <c r="D352" s="3" t="n">
         <v>14398.92</v>
       </c>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
@@ -7298,9 +7509,12 @@
       <c r="C353" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D353" s="13" t="n">
+      <c r="D353" s="3" t="n">
         <v>45946.84</v>
       </c>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
     </row>
     <row r="354" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
@@ -7312,9 +7526,12 @@
       <c r="C354" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D354" s="13" t="n">
+      <c r="D354" s="3" t="n">
         <v>12454.96</v>
       </c>
+      <c r="E354" s="11"/>
+      <c r="F354" s="11"/>
+      <c r="G354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
@@ -7326,9 +7543,12 @@
       <c r="C355" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D355" s="13" t="n">
+      <c r="D355" s="3" t="n">
         <v>1177.89</v>
       </c>
+      <c r="E355" s="11"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
     </row>
     <row r="356" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
@@ -7340,9 +7560,12 @@
       <c r="C356" s="12" t="n">
         <v>43115</v>
       </c>
-      <c r="D356" s="13" t="n">
+      <c r="D356" s="3" t="n">
         <v>14609.03</v>
       </c>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
@@ -7354,9 +7577,12 @@
       <c r="C357" s="12" t="n">
         <v>43119</v>
       </c>
-      <c r="D357" s="0" t="n">
+      <c r="D357" s="11" t="n">
         <v>2055.04</v>
       </c>
+      <c r="E357" s="11"/>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
     </row>
     <row r="358" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
@@ -7368,12 +7594,14 @@
       <c r="C358" s="12" t="n">
         <v>43119</v>
       </c>
-      <c r="D358" s="0" t="n">
+      <c r="D358" s="11" t="n">
         <v>1208.19</v>
       </c>
-      <c r="F358" s="0" t="n">
+      <c r="E358" s="11"/>
+      <c r="F358" s="11" t="n">
         <v>1208.19</v>
       </c>
+      <c r="G358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
@@ -7385,9 +7613,12 @@
       <c r="C359" s="12" t="n">
         <v>43119</v>
       </c>
-      <c r="D359" s="0" t="n">
+      <c r="D359" s="11" t="n">
         <v>42607.03</v>
       </c>
+      <c r="E359" s="11"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
     </row>
     <row r="360" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
@@ -7399,9 +7630,12 @@
       <c r="C360" s="12" t="n">
         <v>43119</v>
       </c>
-      <c r="D360" s="0" t="n">
+      <c r="D360" s="11" t="n">
         <v>6040.8</v>
       </c>
+      <c r="E360" s="11"/>
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
@@ -7413,9 +7647,12 @@
       <c r="C361" s="12" t="n">
         <v>43119</v>
       </c>
-      <c r="D361" s="0" t="n">
+      <c r="D361" s="11" t="n">
         <v>11613.53</v>
       </c>
+      <c r="E361" s="11"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
     </row>
     <row r="362" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
@@ -7427,9 +7664,12 @@
       <c r="C362" s="12" t="n">
         <v>43119</v>
       </c>
-      <c r="D362" s="0" t="n">
+      <c r="D362" s="11" t="n">
         <v>10978.46</v>
       </c>
+      <c r="E362" s="11"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
@@ -7441,9 +7681,12 @@
       <c r="C363" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D363" s="13" t="n">
+      <c r="D363" s="3" t="n">
         <v>14816.01</v>
       </c>
+      <c r="E363" s="11"/>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
     </row>
     <row r="364" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
@@ -7455,9 +7698,12 @@
       <c r="C364" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D364" s="13" t="n">
+      <c r="D364" s="3" t="n">
         <v>47231.9</v>
       </c>
+      <c r="E364" s="11"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
@@ -7469,9 +7715,12 @@
       <c r="C365" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D365" s="13" t="n">
+      <c r="D365" s="3" t="n">
         <v>12493.55</v>
       </c>
+      <c r="E365" s="11"/>
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
     </row>
     <row r="366" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
@@ -7483,9 +7732,12 @@
       <c r="C366" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D366" s="13" t="n">
+      <c r="D366" s="3" t="n">
         <v>1189.8</v>
       </c>
+      <c r="E366" s="11"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
@@ -7497,9 +7749,12 @@
       <c r="C367" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D367" s="13" t="n">
+      <c r="D367" s="3" t="n">
         <v>14909.76</v>
       </c>
+      <c r="E367" s="11"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
     </row>
     <row r="368" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
@@ -7511,9 +7766,12 @@
       <c r="C368" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D368" s="0" t="n">
+      <c r="D368" s="11" t="n">
         <v>2058.16</v>
       </c>
+      <c r="E368" s="11"/>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
@@ -7525,12 +7783,14 @@
       <c r="C369" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D369" s="0" t="n">
+      <c r="D369" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E369" s="0" t="n">
+      <c r="E369" s="11" t="n">
         <v>6721.38</v>
       </c>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
     </row>
     <row r="370" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
@@ -7542,9 +7802,12 @@
       <c r="C370" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D370" s="13" t="n">
+      <c r="D370" s="3" t="n">
         <v>43065.28</v>
       </c>
+      <c r="E370" s="11"/>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
@@ -7556,9 +7819,12 @@
       <c r="C371" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D371" s="13" t="n">
+      <c r="D371" s="3" t="n">
         <v>6273.8</v>
       </c>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
@@ -7570,9 +7836,12 @@
       <c r="C372" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D372" s="13" t="n">
+      <c r="D372" s="3" t="n">
         <v>11801.56</v>
       </c>
+      <c r="E372" s="11"/>
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
@@ -7584,9 +7853,12 @@
       <c r="C373" s="12" t="n">
         <v>43129</v>
       </c>
-      <c r="D373" s="13" t="n">
+      <c r="D373" s="3" t="n">
         <v>11181</v>
       </c>
+      <c r="E373" s="11"/>
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
     </row>
     <row r="374" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
@@ -7598,10 +7870,12 @@
       <c r="C374" s="12" t="n">
         <v>43132</v>
       </c>
-      <c r="D374" s="0" t="n">
+      <c r="D374" s="11" t="n">
         <v>2058.16</v>
       </c>
-      <c r="G374" s="0" t="n">
+      <c r="E374" s="11"/>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11" t="n">
         <f aca="false">D374+E374</f>
         <v>2058.16</v>
       </c>
@@ -7616,13 +7890,14 @@
       <c r="C375" s="12" t="n">
         <v>43132</v>
       </c>
-      <c r="D375" s="13" t="n">
+      <c r="D375" s="3" t="n">
         <v>6714.95</v>
       </c>
-      <c r="E375" s="0" t="n">
+      <c r="E375" s="11" t="n">
         <v>1308.32</v>
       </c>
-      <c r="G375" s="0" t="n">
+      <c r="F375" s="11"/>
+      <c r="G375" s="11" t="n">
         <f aca="false">D375+E375</f>
         <v>8023.27</v>
       </c>
@@ -7637,13 +7912,14 @@
       <c r="C376" s="12" t="n">
         <v>43132</v>
       </c>
-      <c r="D376" s="13" t="n">
+      <c r="D376" s="3" t="n">
         <v>42853.62</v>
       </c>
-      <c r="E376" s="0" t="n">
+      <c r="E376" s="11" t="n">
         <v>1792.1</v>
       </c>
-      <c r="G376" s="0" t="n">
+      <c r="F376" s="11"/>
+      <c r="G376" s="11" t="n">
         <f aca="false">D376+E376</f>
         <v>44645.72</v>
       </c>
@@ -7658,10 +7934,12 @@
       <c r="C377" s="12" t="n">
         <v>43132</v>
       </c>
-      <c r="D377" s="13" t="n">
+      <c r="D377" s="3" t="n">
         <v>6279.93</v>
       </c>
-      <c r="G377" s="0" t="n">
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
+      <c r="G377" s="11" t="n">
         <f aca="false">D377+E377</f>
         <v>6279.93</v>
       </c>
@@ -7676,10 +7954,12 @@
       <c r="C378" s="12" t="n">
         <v>43132</v>
       </c>
-      <c r="D378" s="13" t="n">
+      <c r="D378" s="3" t="n">
         <v>11925.94</v>
       </c>
-      <c r="G378" s="0" t="n">
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11" t="n">
         <f aca="false">D378+E378</f>
         <v>11925.94</v>
       </c>
@@ -7694,10 +7974,12 @@
       <c r="C379" s="12" t="n">
         <v>43132</v>
       </c>
-      <c r="D379" s="13" t="n">
+      <c r="D379" s="3" t="n">
         <v>11292.68</v>
       </c>
-      <c r="G379" s="0" t="n">
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
+      <c r="G379" s="11" t="n">
         <f aca="false">D379+E379</f>
         <v>11292.68</v>
       </c>
@@ -7712,10 +7994,12 @@
       <c r="C380" s="12" t="n">
         <v>43133</v>
       </c>
-      <c r="D380" s="13" t="n">
+      <c r="D380" s="3" t="n">
         <v>14964.36</v>
       </c>
-      <c r="G380" s="0" t="n">
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
+      <c r="G380" s="11" t="n">
         <f aca="false">D380+E380</f>
         <v>14964.36</v>
       </c>
@@ -7730,13 +8014,14 @@
       <c r="C381" s="12" t="n">
         <v>43133</v>
       </c>
-      <c r="D381" s="13" t="n">
+      <c r="D381" s="3" t="n">
         <v>46898.44</v>
       </c>
-      <c r="E381" s="0" t="n">
+      <c r="E381" s="11" t="n">
         <v>3028.4</v>
       </c>
-      <c r="G381" s="0" t="n">
+      <c r="F381" s="11"/>
+      <c r="G381" s="11" t="n">
         <f aca="false">D381+E381</f>
         <v>49926.84</v>
       </c>
@@ -7751,10 +8036,12 @@
       <c r="C382" s="12" t="n">
         <v>43133</v>
       </c>
-      <c r="D382" s="13" t="n">
+      <c r="D382" s="3" t="n">
         <v>12509.02</v>
       </c>
-      <c r="G382" s="0" t="n">
+      <c r="E382" s="11"/>
+      <c r="F382" s="11"/>
+      <c r="G382" s="11" t="n">
         <f aca="false">D382+E382</f>
         <v>12509.02</v>
       </c>
@@ -7769,10 +8056,12 @@
       <c r="C383" s="12" t="n">
         <v>43133</v>
       </c>
-      <c r="D383" s="13" t="n">
+      <c r="D383" s="3" t="n">
         <v>1192.33</v>
       </c>
-      <c r="G383" s="0" t="n">
+      <c r="E383" s="11"/>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11" t="n">
         <f aca="false">D383+E383</f>
         <v>1192.33</v>
       </c>
@@ -7787,10 +8076,12 @@
       <c r="C384" s="12" t="n">
         <v>43133</v>
       </c>
-      <c r="D384" s="13" t="n">
+      <c r="D384" s="3" t="n">
         <v>15066.26</v>
       </c>
-      <c r="G384" s="0" t="n">
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
+      <c r="G384" s="11" t="n">
         <f aca="false">D384+E384</f>
         <v>15066.26</v>
       </c>
@@ -7805,9 +8096,12 @@
       <c r="C385" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D385" s="0" t="n">
+      <c r="D385" s="11" t="n">
         <v>2170.48</v>
       </c>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
     </row>
     <row r="386" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
@@ -7819,9 +8113,12 @@
       <c r="C386" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D386" s="13" t="n">
+      <c r="D386" s="3" t="n">
         <v>8024.87</v>
       </c>
+      <c r="E386" s="11"/>
+      <c r="F386" s="11"/>
+      <c r="G386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
@@ -7833,9 +8130,12 @@
       <c r="C387" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D387" s="13" t="n">
+      <c r="D387" s="3" t="n">
         <v>43994</v>
       </c>
+      <c r="E387" s="11"/>
+      <c r="F387" s="11"/>
+      <c r="G387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
@@ -7847,9 +8147,12 @@
       <c r="C388" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D388" s="13" t="n">
+      <c r="D388" s="3" t="n">
         <v>6286.06</v>
       </c>
+      <c r="E388" s="11"/>
+      <c r="F388" s="11"/>
+      <c r="G388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
@@ -7861,9 +8164,12 @@
       <c r="C389" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D389" s="13" t="n">
+      <c r="D389" s="3" t="n">
         <v>11734.08</v>
       </c>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
+      <c r="G389" s="11"/>
     </row>
     <row r="390" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
@@ -7875,9 +8181,12 @@
       <c r="C390" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D390" s="13" t="n">
+      <c r="D390" s="3" t="n">
         <v>11225.94</v>
       </c>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
+      <c r="G390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
@@ -7889,9 +8198,12 @@
       <c r="C391" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D391" s="13" t="n">
+      <c r="D391" s="3" t="n">
         <v>14875.7</v>
       </c>
+      <c r="E391" s="11"/>
+      <c r="F391" s="11"/>
+      <c r="G391" s="11"/>
     </row>
     <row r="392" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
@@ -7903,9 +8215,12 @@
       <c r="C392" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D392" s="13" t="n">
+      <c r="D392" s="3" t="n">
         <v>49291.72</v>
       </c>
+      <c r="E392" s="11"/>
+      <c r="F392" s="11"/>
+      <c r="G392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
@@ -7917,9 +8232,12 @@
       <c r="C393" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D393" s="13" t="n">
+      <c r="D393" s="3" t="n">
         <v>12516.76</v>
       </c>
+      <c r="E393" s="11"/>
+      <c r="F393" s="11"/>
+      <c r="G393" s="11"/>
     </row>
     <row r="394" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
@@ -7931,9 +8249,12 @@
       <c r="C394" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D394" s="13" t="n">
+      <c r="D394" s="3" t="n">
         <v>1180.18</v>
       </c>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
     </row>
     <row r="395" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
@@ -7945,9 +8266,12 @@
       <c r="C395" s="12" t="n">
         <v>43137</v>
       </c>
-      <c r="D395" s="13" t="n">
+      <c r="D395" s="3" t="n">
         <v>14824.87</v>
       </c>
+      <c r="E395" s="11"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
     </row>
     <row r="396" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
@@ -7959,9 +8283,12 @@
       <c r="C396" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D396" s="0" t="n">
+      <c r="D396" s="11" t="n">
         <v>2262</v>
       </c>
+      <c r="E396" s="11"/>
+      <c r="F396" s="11"/>
+      <c r="G396" s="11"/>
     </row>
     <row r="397" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
@@ -7973,9 +8300,12 @@
       <c r="C397" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D397" s="13" t="n">
+      <c r="D397" s="3" t="n">
         <v>8035.27</v>
       </c>
+      <c r="E397" s="11"/>
+      <c r="F397" s="11"/>
+      <c r="G397" s="11"/>
     </row>
     <row r="398" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
@@ -7987,9 +8317,12 @@
       <c r="C398" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D398" s="13" t="n">
+      <c r="D398" s="3" t="n">
         <v>41586.26</v>
       </c>
+      <c r="E398" s="11"/>
+      <c r="F398" s="11"/>
+      <c r="G398" s="11"/>
     </row>
     <row r="399" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
@@ -8001,9 +8334,12 @@
       <c r="C399" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D399" s="13" t="n">
+      <c r="D399" s="3" t="n">
         <v>6296.07</v>
       </c>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
@@ -8015,9 +8351,12 @@
       <c r="C400" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D400" s="13" t="n">
+      <c r="D400" s="3" t="n">
         <v>10959.55</v>
       </c>
+      <c r="E400" s="11"/>
+      <c r="F400" s="11"/>
+      <c r="G400" s="11"/>
     </row>
     <row r="401" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
@@ -8029,9 +8368,12 @@
       <c r="C401" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D401" s="13" t="n">
+      <c r="D401" s="3" t="n">
         <v>10804.64</v>
       </c>
+      <c r="E401" s="11"/>
+      <c r="F401" s="11"/>
+      <c r="G401" s="11"/>
     </row>
     <row r="402" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
@@ -8043,9 +8385,12 @@
       <c r="C402" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D402" s="13" t="n">
+      <c r="D402" s="3" t="n">
         <v>14316.03</v>
       </c>
+      <c r="E402" s="11"/>
+      <c r="F402" s="11"/>
+      <c r="G402" s="11"/>
     </row>
     <row r="403" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
@@ -8057,9 +8402,12 @@
       <c r="C403" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D403" s="13" t="n">
+      <c r="D403" s="3" t="n">
         <v>46613.89</v>
       </c>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
     </row>
     <row r="404" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
@@ -8071,9 +8419,12 @@
       <c r="C404" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D404" s="13" t="n">
+      <c r="D404" s="3" t="n">
         <v>12535.73</v>
       </c>
+      <c r="E404" s="11"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="11"/>
     </row>
     <row r="405" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
@@ -8085,9 +8436,12 @@
       <c r="C405" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D405" s="13" t="n">
+      <c r="D405" s="3" t="n">
         <v>1149.12</v>
       </c>
+      <c r="E405" s="11"/>
+      <c r="F405" s="11"/>
+      <c r="G405" s="11"/>
     </row>
     <row r="406" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
@@ -8099,9 +8453,12 @@
       <c r="C406" s="12" t="n">
         <v>43146</v>
       </c>
-      <c r="D406" s="13" t="n">
+      <c r="D406" s="3" t="n">
         <v>13824.01</v>
       </c>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
+      <c r="G406" s="11"/>
     </row>
     <row r="407" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
@@ -8113,9 +8470,12 @@
       <c r="C407" s="12" t="n">
         <v>43147</v>
       </c>
-      <c r="D407" s="0" t="n">
+      <c r="D407" s="11" t="n">
         <v>2276.56</v>
       </c>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="11"/>
     </row>
     <row r="408" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
@@ -8127,9 +8487,12 @@
       <c r="C408" s="12" t="n">
         <v>43147</v>
       </c>
-      <c r="D408" s="13" t="n">
+      <c r="D408" s="3" t="n">
         <v>8033.3</v>
       </c>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
     </row>
     <row r="409" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
@@ -8141,9 +8504,12 @@
       <c r="C409" s="12" t="n">
         <v>43147</v>
       </c>
-      <c r="D409" s="13" t="n">
+      <c r="D409" s="3" t="n">
         <v>43435.16</v>
       </c>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
     </row>
     <row r="410" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
@@ -8155,9 +8521,12 @@
       <c r="C410" s="12" t="n">
         <v>43147</v>
       </c>
-      <c r="D410" s="13" t="n">
+      <c r="D410" s="3" t="n">
         <v>2298.05</v>
       </c>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
     </row>
     <row r="411" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
@@ -8169,9 +8538,12 @@
       <c r="C411" s="12" t="n">
         <v>43147</v>
       </c>
-      <c r="D411" s="13" t="n">
+      <c r="D411" s="3" t="n">
         <v>11599.76</v>
       </c>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="11"/>
     </row>
     <row r="412" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
@@ -8183,9 +8555,12 @@
       <c r="C412" s="12" t="n">
         <v>43147</v>
       </c>
-      <c r="D412" s="13" t="n">
+      <c r="D412" s="3" t="n">
         <v>11060.16</v>
       </c>
+      <c r="E412" s="11"/>
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
     </row>
     <row r="413" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
@@ -8197,9 +8572,12 @@
       <c r="C413" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D413" s="0" t="n">
+      <c r="D413" s="11" t="n">
         <v>2318.16</v>
       </c>
+      <c r="E413" s="11"/>
+      <c r="F413" s="11"/>
+      <c r="G413" s="11"/>
     </row>
     <row r="414" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
@@ -8211,9 +8589,12 @@
       <c r="C414" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D414" s="13" t="n">
+      <c r="D414" s="3" t="n">
         <v>8041.58</v>
       </c>
+      <c r="E414" s="11"/>
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
     </row>
     <row r="415" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
@@ -8225,9 +8606,12 @@
       <c r="C415" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D415" s="13" t="n">
+      <c r="D415" s="3" t="n">
         <v>43258.17</v>
       </c>
+      <c r="E415" s="11"/>
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
     </row>
     <row r="416" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
@@ -8239,9 +8623,12 @@
       <c r="C416" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D416" s="13" t="n">
+      <c r="D416" s="3" t="n">
         <v>6305.96</v>
       </c>
+      <c r="E416" s="11"/>
+      <c r="F416" s="11"/>
+      <c r="G416" s="11"/>
     </row>
     <row r="417" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
@@ -8253,9 +8640,12 @@
       <c r="C417" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D417" s="13" t="n">
+      <c r="D417" s="3" t="n">
         <v>12008.03</v>
       </c>
+      <c r="E417" s="11"/>
+      <c r="F417" s="11"/>
+      <c r="G417" s="11"/>
     </row>
     <row r="418" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
@@ -8267,9 +8657,12 @@
       <c r="C418" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D418" s="13" t="n">
+      <c r="D418" s="3" t="n">
         <v>11193.46</v>
       </c>
+      <c r="E418" s="11"/>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
     </row>
     <row r="419" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
@@ -8281,9 +8674,12 @@
       <c r="C419" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D419" s="13" t="n">
+      <c r="D419" s="3" t="n">
         <v>14832.56</v>
       </c>
+      <c r="E419" s="11"/>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
     </row>
     <row r="420" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
@@ -8295,9 +8691,12 @@
       <c r="C420" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D420" s="13" t="n">
+      <c r="D420" s="3" t="n">
         <v>48449.38</v>
       </c>
+      <c r="E420" s="11"/>
+      <c r="F420" s="11"/>
+      <c r="G420" s="11"/>
     </row>
     <row r="421" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
@@ -8309,9 +8708,12 @@
       <c r="C421" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D421" s="13" t="n">
+      <c r="D421" s="3" t="n">
         <v>12554.45</v>
       </c>
+      <c r="E421" s="11"/>
+      <c r="F421" s="11"/>
+      <c r="G421" s="11"/>
     </row>
     <row r="422" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
@@ -8323,9 +8725,12 @@
       <c r="C422" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D422" s="13" t="n">
+      <c r="D422" s="3" t="n">
         <v>1154.36</v>
       </c>
+      <c r="E422" s="11"/>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
     </row>
     <row r="423" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
@@ -8337,9 +8742,12 @@
       <c r="C423" s="12" t="n">
         <v>43153</v>
       </c>
-      <c r="D423" s="13" t="n">
+      <c r="D423" s="3" t="n">
         <v>15169.54</v>
       </c>
+      <c r="E423" s="11"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
     </row>
     <row r="424" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
@@ -8351,9 +8759,12 @@
       <c r="C424" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D424" s="0" t="n">
+      <c r="D424" s="11" t="n">
         <v>2253.68</v>
       </c>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
     </row>
     <row r="425" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
@@ -8365,9 +8776,12 @@
       <c r="C425" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D425" s="13" t="n">
+      <c r="D425" s="3" t="n">
         <v>8049.87</v>
       </c>
+      <c r="E425" s="11"/>
+      <c r="F425" s="11"/>
+      <c r="G425" s="11"/>
     </row>
     <row r="426" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
@@ -8379,9 +8793,12 @@
       <c r="C426" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D426" s="13" t="n">
+      <c r="D426" s="3" t="n">
         <v>44158.1</v>
       </c>
+      <c r="E426" s="11"/>
+      <c r="F426" s="11"/>
+      <c r="G426" s="11"/>
     </row>
     <row r="427" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
@@ -8393,9 +8810,12 @@
       <c r="C427" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D427" s="13" t="n">
+      <c r="D427" s="3" t="n">
         <v>6313.88</v>
       </c>
+      <c r="E427" s="11"/>
+      <c r="F427" s="11"/>
+      <c r="G427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
@@ -8407,9 +8827,12 @@
       <c r="C428" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D428" s="13" t="n">
+      <c r="D428" s="3" t="n">
         <v>12526.1</v>
       </c>
+      <c r="E428" s="11"/>
+      <c r="F428" s="11"/>
+      <c r="G428" s="11"/>
     </row>
     <row r="429" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
@@ -8421,9 +8844,12 @@
       <c r="C429" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D429" s="13" t="n">
+      <c r="D429" s="3" t="n">
         <v>11325.66</v>
       </c>
+      <c r="E429" s="11"/>
+      <c r="F429" s="11"/>
+      <c r="G429" s="11"/>
     </row>
     <row r="430" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
@@ -8435,9 +8861,12 @@
       <c r="C430" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D430" s="13" t="n">
+      <c r="D430" s="3" t="n">
         <v>14894.37</v>
       </c>
+      <c r="E430" s="11"/>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
     </row>
     <row r="431" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
@@ -8449,9 +8878,12 @@
       <c r="C431" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D431" s="13" t="n">
+      <c r="D431" s="3" t="n">
         <v>49478.97</v>
       </c>
+      <c r="E431" s="11"/>
+      <c r="F431" s="11"/>
+      <c r="G431" s="11"/>
     </row>
     <row r="432" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
@@ -8463,9 +8895,12 @@
       <c r="C432" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D432" s="13" t="n">
+      <c r="D432" s="3" t="n">
         <v>12569.45</v>
       </c>
+      <c r="E432" s="11"/>
+      <c r="F432" s="11"/>
+      <c r="G432" s="11"/>
     </row>
     <row r="433" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
@@ -8477,9 +8912,12 @@
       <c r="C433" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D433" s="13" t="n">
+      <c r="D433" s="3" t="n">
         <v>1160.34</v>
       </c>
+      <c r="E433" s="11"/>
+      <c r="F433" s="11"/>
+      <c r="G433" s="11"/>
     </row>
     <row r="434" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
@@ -8491,9 +8929,12 @@
       <c r="C434" s="12" t="n">
         <v>43159</v>
       </c>
-      <c r="D434" s="13" t="n">
+      <c r="D434" s="3" t="n">
         <v>15821.34</v>
       </c>
+      <c r="E434" s="11"/>
+      <c r="F434" s="11"/>
+      <c r="G434" s="11"/>
     </row>
     <row r="435" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
@@ -8505,9 +8946,12 @@
       <c r="C435" s="12" t="n">
         <v>43167</v>
       </c>
-      <c r="D435" s="13" t="n">
+      <c r="D435" s="3" t="n">
         <v>14674.66</v>
       </c>
+      <c r="E435" s="11"/>
+      <c r="F435" s="11"/>
+      <c r="G435" s="11"/>
     </row>
     <row r="436" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
@@ -8519,9 +8963,12 @@
       <c r="C436" s="12" t="n">
         <v>43167</v>
       </c>
-      <c r="D436" s="13" t="n">
+      <c r="D436" s="3" t="n">
         <v>48734.99</v>
       </c>
+      <c r="E436" s="11"/>
+      <c r="F436" s="11"/>
+      <c r="G436" s="11"/>
     </row>
     <row r="437" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
@@ -8533,9 +8980,12 @@
       <c r="C437" s="12" t="n">
         <v>43167</v>
       </c>
-      <c r="D437" s="13" t="n">
+      <c r="D437" s="3" t="n">
         <v>12591.98</v>
       </c>
+      <c r="E437" s="11"/>
+      <c r="F437" s="11"/>
+      <c r="G437" s="11"/>
     </row>
     <row r="438" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
@@ -8547,12 +8997,14 @@
       <c r="C438" s="12" t="n">
         <v>43167</v>
       </c>
-      <c r="D438" s="13" t="n">
+      <c r="D438" s="3" t="n">
         <v>1162.73</v>
       </c>
-      <c r="F438" s="0" t="n">
+      <c r="E438" s="11"/>
+      <c r="F438" s="11" t="n">
         <v>1162.73</v>
       </c>
+      <c r="G438" s="11"/>
     </row>
     <row r="439" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
@@ -8564,9 +9016,12 @@
       <c r="C439" s="12" t="n">
         <v>43167</v>
       </c>
-      <c r="D439" s="13" t="n">
+      <c r="D439" s="3" t="n">
         <v>15726.71</v>
       </c>
+      <c r="E439" s="11"/>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
     </row>
     <row r="440" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
@@ -8578,9 +9033,12 @@
       <c r="C440" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D440" s="13" t="n">
+      <c r="D440" s="3" t="n">
         <v>15013.17</v>
       </c>
+      <c r="E440" s="11"/>
+      <c r="F440" s="11"/>
+      <c r="G440" s="11"/>
     </row>
     <row r="441" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
@@ -8592,9 +9050,12 @@
       <c r="C441" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D441" s="13" t="n">
+      <c r="D441" s="3" t="n">
         <v>49622.84</v>
       </c>
+      <c r="E441" s="11"/>
+      <c r="F441" s="11"/>
+      <c r="G441" s="11"/>
     </row>
     <row r="442" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
@@ -8606,9 +9067,12 @@
       <c r="C442" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D442" s="13" t="n">
+      <c r="D442" s="3" t="n">
         <v>12603.26</v>
       </c>
+      <c r="E442" s="11"/>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
     </row>
     <row r="443" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
@@ -8620,9 +9084,12 @@
       <c r="C443" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D443" s="13" t="n">
+      <c r="D443" s="3" t="n">
         <v>15838.62</v>
       </c>
+      <c r="E443" s="11"/>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11"/>
     </row>
     <row r="444" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
@@ -8634,9 +9101,12 @@
       <c r="C444" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D444" s="0" t="n">
+      <c r="D444" s="11" t="n">
         <v>2237.04</v>
       </c>
+      <c r="E444" s="11"/>
+      <c r="F444" s="11"/>
+      <c r="G444" s="11"/>
     </row>
     <row r="445" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
@@ -8648,9 +9118,12 @@
       <c r="C445" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D445" s="13" t="n">
+      <c r="D445" s="3" t="n">
         <v>8068.54</v>
       </c>
+      <c r="E445" s="11"/>
+      <c r="F445" s="11"/>
+      <c r="G445" s="11"/>
     </row>
     <row r="446" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
@@ -8662,9 +9135,12 @@
       <c r="C446" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D446" s="13" t="n">
+      <c r="D446" s="3" t="n">
         <v>44283.25</v>
       </c>
+      <c r="E446" s="11"/>
+      <c r="F446" s="11"/>
+      <c r="G446" s="11"/>
     </row>
     <row r="447" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
@@ -8676,9 +9152,12 @@
       <c r="C447" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D447" s="13" t="n">
+      <c r="D447" s="3" t="n">
         <v>6331.73</v>
       </c>
+      <c r="E447" s="11"/>
+      <c r="F447" s="11"/>
+      <c r="G447" s="11"/>
     </row>
     <row r="448" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
@@ -8690,9 +9169,12 @@
       <c r="C448" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D448" s="13" t="n">
+      <c r="D448" s="3" t="n">
         <v>12539.83</v>
       </c>
+      <c r="E448" s="11"/>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
     </row>
     <row r="449" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
@@ -8704,9 +9186,12 @@
       <c r="C449" s="12" t="n">
         <v>43172</v>
       </c>
-      <c r="D449" s="13" t="n">
+      <c r="D449" s="3" t="n">
         <v>11329.42</v>
       </c>
+      <c r="E449" s="11"/>
+      <c r="F449" s="11"/>
+      <c r="G449" s="11"/>
     </row>
     <row r="450" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
@@ -8718,9 +9203,12 @@
       <c r="C450" s="12" t="n">
         <v>43178</v>
       </c>
-      <c r="D450" s="13" t="n">
+      <c r="D450" s="3" t="n">
         <v>14723.51</v>
       </c>
+      <c r="E450" s="11"/>
+      <c r="F450" s="11"/>
+      <c r="G450" s="11"/>
     </row>
     <row r="451" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
@@ -8732,12 +9220,14 @@
       <c r="C451" s="12" t="n">
         <v>43178</v>
       </c>
-      <c r="D451" s="13" t="n">
+      <c r="D451" s="3" t="n">
         <v>49142.21</v>
       </c>
-      <c r="E451" s="0" t="n">
+      <c r="E451" s="11" t="n">
         <v>10154</v>
       </c>
+      <c r="F451" s="11"/>
+      <c r="G451" s="11"/>
     </row>
     <row r="452" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
@@ -8749,9 +9239,12 @@
       <c r="C452" s="12" t="n">
         <v>43178</v>
       </c>
-      <c r="D452" s="13" t="n">
+      <c r="D452" s="3" t="n">
         <v>12618.32</v>
       </c>
+      <c r="E452" s="11"/>
+      <c r="F452" s="11"/>
+      <c r="G452" s="11"/>
     </row>
     <row r="453" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
@@ -8763,12 +9256,14 @@
       <c r="C453" s="12" t="n">
         <v>43178</v>
       </c>
-      <c r="D453" s="13" t="n">
+      <c r="D453" s="3" t="n">
         <v>15633.55</v>
       </c>
-      <c r="E453" s="0" t="n">
+      <c r="E453" s="11" t="n">
         <v>10000</v>
       </c>
+      <c r="F453" s="11"/>
+      <c r="G453" s="11"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
@@ -8780,13 +9275,14 @@
       <c r="C454" s="12" t="n">
         <v>43180</v>
       </c>
-      <c r="D454" s="14" t="n">
+      <c r="D454" s="13" t="n">
         <v>2215.2</v>
       </c>
-      <c r="E454" s="14"/>
-      <c r="F454" s="14"/>
-    </row>
-    <row r="455" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E454" s="13"/>
+      <c r="F454" s="13"/>
+      <c r="G454" s="11"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>8</v>
       </c>
@@ -8796,15 +9292,16 @@
       <c r="C455" s="12" t="n">
         <v>43180</v>
       </c>
-      <c r="D455" s="15" t="n">
+      <c r="D455" s="14" t="n">
         <v>8081.03</v>
       </c>
-      <c r="E455" s="14"/>
-      <c r="F455" s="15" t="n">
+      <c r="E455" s="13"/>
+      <c r="F455" s="14" t="n">
         <v>8081.03</v>
       </c>
-    </row>
-    <row r="456" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G455" s="11"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>8</v>
       </c>
@@ -8814,13 +9311,14 @@
       <c r="C456" s="12" t="n">
         <v>43180</v>
       </c>
-      <c r="D456" s="15" t="n">
+      <c r="D456" s="14" t="n">
         <v>43480.2</v>
       </c>
-      <c r="E456" s="14"/>
-      <c r="F456" s="14"/>
-    </row>
-    <row r="457" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E456" s="13"/>
+      <c r="F456" s="13"/>
+      <c r="G456" s="11"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>8</v>
       </c>
@@ -8830,13 +9328,14 @@
       <c r="C457" s="12" t="n">
         <v>43180</v>
       </c>
-      <c r="D457" s="15" t="n">
+      <c r="D457" s="14" t="n">
         <v>6343.67</v>
       </c>
-      <c r="E457" s="14"/>
-      <c r="F457" s="14"/>
-    </row>
-    <row r="458" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E457" s="13"/>
+      <c r="F457" s="13"/>
+      <c r="G457" s="11"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>8</v>
       </c>
@@ -8846,13 +9345,14 @@
       <c r="C458" s="12" t="n">
         <v>43180</v>
       </c>
-      <c r="D458" s="15" t="n">
+      <c r="D458" s="14" t="n">
         <v>12344.62</v>
       </c>
-      <c r="E458" s="14"/>
-      <c r="F458" s="14"/>
-    </row>
-    <row r="459" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E458" s="13"/>
+      <c r="F458" s="13"/>
+      <c r="G458" s="11"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
@@ -8862,11 +9362,12 @@
       <c r="C459" s="12" t="n">
         <v>43180</v>
       </c>
-      <c r="D459" s="15" t="n">
+      <c r="D459" s="14" t="n">
         <v>11119.69</v>
       </c>
-      <c r="E459" s="14"/>
-      <c r="F459" s="14"/>
+      <c r="E459" s="13"/>
+      <c r="F459" s="13"/>
+      <c r="G459" s="11"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
@@ -8878,9 +9379,12 @@
       <c r="C460" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D460" s="0" t="n">
+      <c r="D460" s="11" t="n">
         <v>2208.96</v>
       </c>
+      <c r="E460" s="11"/>
+      <c r="F460" s="11"/>
+      <c r="G460" s="11"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
@@ -8892,9 +9396,12 @@
       <c r="C461" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D461" s="0" t="n">
+      <c r="D461" s="11" t="n">
         <v>42520.1</v>
       </c>
+      <c r="E461" s="11"/>
+      <c r="F461" s="11"/>
+      <c r="G461" s="11"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
@@ -8906,9 +9413,12 @@
       <c r="C462" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D462" s="0" t="n">
+      <c r="D462" s="11" t="n">
         <v>6349.5</v>
       </c>
+      <c r="E462" s="11"/>
+      <c r="F462" s="11"/>
+      <c r="G462" s="11"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
@@ -8920,12 +9430,14 @@
       <c r="C463" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D463" s="0" t="n">
+      <c r="D463" s="11" t="n">
         <v>12589.79</v>
       </c>
-      <c r="E463" s="0" t="n">
+      <c r="E463" s="11" t="n">
         <v>11100</v>
       </c>
+      <c r="F463" s="11"/>
+      <c r="G463" s="11"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
@@ -8937,14 +9449,16 @@
       <c r="C464" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D464" s="0" t="n">
+      <c r="D464" s="11" t="n">
         <v>11086.19</v>
       </c>
-      <c r="F464" s="0" t="n">
+      <c r="E464" s="11"/>
+      <c r="F464" s="11" t="n">
         <v>11086.19</v>
       </c>
-    </row>
-    <row r="465" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G464" s="11"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>20</v>
       </c>
@@ -8954,11 +9468,14 @@
       <c r="C465" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D465" s="13" t="n">
+      <c r="D465" s="3" t="n">
         <v>14871.98</v>
       </c>
-    </row>
-    <row r="466" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E465" s="11"/>
+      <c r="F465" s="11"/>
+      <c r="G465" s="11"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>20</v>
       </c>
@@ -8968,11 +9485,14 @@
       <c r="C466" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D466" s="13" t="n">
+      <c r="D466" s="3" t="n">
         <v>57532.57</v>
       </c>
-    </row>
-    <row r="467" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E466" s="11"/>
+      <c r="F466" s="11"/>
+      <c r="G466" s="11"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>20</v>
       </c>
@@ -8982,11 +9502,14 @@
       <c r="C467" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D467" s="13" t="n">
+      <c r="D467" s="3" t="n">
         <v>12636.89</v>
       </c>
-    </row>
-    <row r="468" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E467" s="11"/>
+      <c r="F467" s="11"/>
+      <c r="G467" s="11"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>20</v>
       </c>
@@ -8996,11 +9519,14 @@
       <c r="C468" s="12" t="n">
         <v>43185</v>
       </c>
-      <c r="D468" s="13" t="n">
+      <c r="D468" s="3" t="n">
         <v>25972.11</v>
       </c>
-    </row>
-    <row r="469" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E468" s="11"/>
+      <c r="F468" s="11"/>
+      <c r="G468" s="11"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>20</v>
       </c>
@@ -9010,11 +9536,14 @@
       <c r="C469" s="12" t="n">
         <v>43186</v>
       </c>
-      <c r="D469" s="13" t="n">
+      <c r="D469" s="3" t="n">
         <v>14792.87</v>
       </c>
-    </row>
-    <row r="470" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E469" s="11"/>
+      <c r="F469" s="11"/>
+      <c r="G469" s="11"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>20</v>
       </c>
@@ -9024,14 +9553,16 @@
       <c r="C470" s="12" t="n">
         <v>43186</v>
       </c>
-      <c r="D470" s="13" t="n">
+      <c r="D470" s="3" t="n">
         <v>56704.28</v>
       </c>
-      <c r="F470" s="0" t="n">
+      <c r="E470" s="11"/>
+      <c r="F470" s="11" t="n">
         <v>1500</v>
       </c>
-    </row>
-    <row r="471" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G470" s="11"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>20</v>
       </c>
@@ -9041,11 +9572,14 @@
       <c r="C471" s="12" t="n">
         <v>43186</v>
       </c>
-      <c r="D471" s="13" t="n">
+      <c r="D471" s="3" t="n">
         <v>12640.52</v>
       </c>
-    </row>
-    <row r="472" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E471" s="11"/>
+      <c r="F471" s="11"/>
+      <c r="G471" s="11"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>20</v>
       </c>
@@ -9055,11 +9589,14 @@
       <c r="C472" s="12" t="n">
         <v>43186</v>
       </c>
-      <c r="D472" s="13" t="n">
+      <c r="D472" s="3" t="n">
         <v>25799.41</v>
       </c>
-    </row>
-    <row r="473" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E472" s="11"/>
+      <c r="F472" s="11"/>
+      <c r="G472" s="11"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>20</v>
       </c>
@@ -9069,11 +9606,14 @@
       <c r="C473" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D473" s="13" t="n">
+      <c r="D473" s="3" t="n">
         <v>14790.08</v>
       </c>
-    </row>
-    <row r="474" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E473" s="11"/>
+      <c r="F473" s="11"/>
+      <c r="G473" s="11"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>20</v>
       </c>
@@ -9083,11 +9623,14 @@
       <c r="C474" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D474" s="13" t="n">
+      <c r="D474" s="3" t="n">
         <v>55422.82</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E474" s="11"/>
+      <c r="F474" s="11"/>
+      <c r="G474" s="11"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>20</v>
       </c>
@@ -9097,11 +9640,14 @@
       <c r="C475" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D475" s="13" t="n">
+      <c r="D475" s="3" t="n">
         <v>12651.43</v>
       </c>
-    </row>
-    <row r="476" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E475" s="11"/>
+      <c r="F475" s="11"/>
+      <c r="G475" s="11"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>20</v>
       </c>
@@ -9111,9 +9657,12 @@
       <c r="C476" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D476" s="13" t="n">
+      <c r="D476" s="3" t="n">
         <v>25666.92</v>
       </c>
+      <c r="E476" s="11"/>
+      <c r="F476" s="11"/>
+      <c r="G476" s="11"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
@@ -9125,11 +9674,14 @@
       <c r="C477" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D477" s="0" t="n">
+      <c r="D477" s="11" t="n">
         <v>2227.68</v>
       </c>
-    </row>
-    <row r="478" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E477" s="11"/>
+      <c r="F477" s="11"/>
+      <c r="G477" s="11"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>8</v>
       </c>
@@ -9139,11 +9691,14 @@
       <c r="C478" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D478" s="13" t="n">
+      <c r="D478" s="3" t="n">
         <v>42089.86</v>
       </c>
-    </row>
-    <row r="479" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E478" s="11"/>
+      <c r="F478" s="11"/>
+      <c r="G478" s="11"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>8</v>
       </c>
@@ -9153,11 +9708,14 @@
       <c r="C479" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D479" s="13" t="n">
+      <c r="D479" s="3" t="n">
         <v>6357.18</v>
       </c>
-    </row>
-    <row r="480" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E479" s="11"/>
+      <c r="F479" s="11"/>
+      <c r="G479" s="11"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>8</v>
       </c>
@@ -9167,9 +9725,12 @@
       <c r="C480" s="12" t="n">
         <v>43189</v>
       </c>
-      <c r="D480" s="13" t="n">
+      <c r="D480" s="3" t="n">
         <v>23540.7</v>
       </c>
+      <c r="E480" s="11"/>
+      <c r="F480" s="11"/>
+      <c r="G480" s="11"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
@@ -9181,11 +9742,14 @@
       <c r="C481" s="12" t="n">
         <v>43192</v>
       </c>
-      <c r="D481" s="0" t="n">
+      <c r="D481" s="11" t="n">
         <v>2241.2</v>
       </c>
-    </row>
-    <row r="482" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E481" s="11"/>
+      <c r="F481" s="11"/>
+      <c r="G481" s="11"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>8</v>
       </c>
@@ -9195,12 +9759,15 @@
       <c r="C482" s="12" t="n">
         <v>43192</v>
       </c>
-      <c r="D482" s="13" t="n">
+      <c r="D482" s="3" t="n">
         <v>42089.86</v>
       </c>
-      <c r="H482" s="13"/>
-    </row>
-    <row r="483" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E482" s="11"/>
+      <c r="F482" s="11"/>
+      <c r="G482" s="11"/>
+      <c r="H482" s="15"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>8</v>
       </c>
@@ -9210,12 +9777,15 @@
       <c r="C483" s="12" t="n">
         <v>43192</v>
       </c>
-      <c r="D483" s="13" t="n">
+      <c r="D483" s="3" t="n">
         <v>6357.18</v>
       </c>
-      <c r="H483" s="13"/>
-    </row>
-    <row r="484" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E483" s="11"/>
+      <c r="F483" s="11"/>
+      <c r="G483" s="11"/>
+      <c r="H483" s="15"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>8</v>
       </c>
@@ -9225,13 +9795,15 @@
       <c r="C484" s="12" t="n">
         <v>43192</v>
       </c>
-      <c r="D484" s="13" t="n">
+      <c r="D484" s="3" t="n">
         <v>23540.7</v>
       </c>
-      <c r="E484" s="0" t="n">
+      <c r="E484" s="11" t="n">
         <v>5000</v>
       </c>
-      <c r="H484" s="13"/>
+      <c r="F484" s="11"/>
+      <c r="G484" s="11"/>
+      <c r="H484" s="15"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
@@ -9243,12 +9815,14 @@
       <c r="C485" s="12" t="n">
         <v>43192</v>
       </c>
-      <c r="D485" s="0" t="n">
+      <c r="D485" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E485" s="0" t="n">
+      <c r="E485" s="11" t="n">
         <v>2452.14</v>
       </c>
+      <c r="F485" s="11"/>
+      <c r="G485" s="11"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
@@ -9260,14 +9834,16 @@
       <c r="C486" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D486" s="0" t="n">
+      <c r="D486" s="11" t="n">
         <v>2452.14</v>
       </c>
-      <c r="E486" s="0" t="n">
+      <c r="E486" s="11" t="n">
         <v>1981.07</v>
       </c>
-    </row>
-    <row r="487" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F486" s="11"/>
+      <c r="G486" s="11"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>20</v>
       </c>
@@ -9277,11 +9853,14 @@
       <c r="C487" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D487" s="13" t="n">
+      <c r="D487" s="3" t="n">
         <v>14847.47</v>
       </c>
-    </row>
-    <row r="488" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E487" s="11"/>
+      <c r="F487" s="11"/>
+      <c r="G487" s="11"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>20</v>
       </c>
@@ -9291,15 +9870,16 @@
       <c r="C488" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D488" s="13" t="n">
+      <c r="D488" s="3" t="n">
         <v>55981.37</v>
       </c>
-      <c r="E488" s="13"/>
-      <c r="F488" s="0" t="n">
+      <c r="E488" s="3"/>
+      <c r="F488" s="11" t="n">
         <v>15800</v>
       </c>
-    </row>
-    <row r="489" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G488" s="11"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>20</v>
       </c>
@@ -9309,12 +9889,14 @@
       <c r="C489" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D489" s="13" t="n">
+      <c r="D489" s="3" t="n">
         <v>12655.07</v>
       </c>
-      <c r="E489" s="13"/>
-    </row>
-    <row r="490" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E489" s="3"/>
+      <c r="F489" s="11"/>
+      <c r="G489" s="11"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>20</v>
       </c>
@@ -9324,12 +9906,14 @@
       <c r="C490" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D490" s="13" t="n">
+      <c r="D490" s="3" t="n">
         <v>26419.8</v>
       </c>
-      <c r="E490" s="13"/>
-    </row>
-    <row r="491" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E490" s="3"/>
+      <c r="F490" s="11"/>
+      <c r="G490" s="11"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>8</v>
       </c>
@@ -9339,14 +9923,16 @@
       <c r="C491" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D491" s="13" t="n">
+      <c r="D491" s="3" t="n">
         <v>42489.65</v>
       </c>
-      <c r="F491" s="0" t="n">
+      <c r="E491" s="11"/>
+      <c r="F491" s="11" t="n">
         <v>6800</v>
       </c>
-    </row>
-    <row r="492" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G491" s="11"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>8</v>
       </c>
@@ -9356,11 +9942,14 @@
       <c r="C492" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D492" s="13" t="n">
+      <c r="D492" s="3" t="n">
         <v>6359.1</v>
       </c>
-    </row>
-    <row r="493" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E492" s="11"/>
+      <c r="F492" s="11"/>
+      <c r="G492" s="11"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>8</v>
       </c>
@@ -9370,12 +9959,15 @@
       <c r="C493" s="12" t="n">
         <v>43193</v>
       </c>
-      <c r="D493" s="13" t="n">
+      <c r="D493" s="3" t="n">
         <f aca="false">23899.68+5000</f>
         <v>28899.68</v>
       </c>
-    </row>
-    <row r="494" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E493" s="11"/>
+      <c r="F493" s="11"/>
+      <c r="G493" s="11"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>8</v>
       </c>
@@ -9385,11 +9977,14 @@
       <c r="C494" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D494" s="13" t="n">
+      <c r="D494" s="3" t="n">
         <v>35843.43</v>
       </c>
-    </row>
-    <row r="495" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E494" s="11"/>
+      <c r="F494" s="11"/>
+      <c r="G494" s="11"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>8</v>
       </c>
@@ -9399,11 +9994,14 @@
       <c r="C495" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D495" s="13" t="n">
+      <c r="D495" s="3" t="n">
         <v>6364.87</v>
       </c>
-    </row>
-    <row r="496" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E495" s="11"/>
+      <c r="F495" s="11"/>
+      <c r="G495" s="11"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>8</v>
       </c>
@@ -9413,14 +10011,16 @@
       <c r="C496" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D496" s="13" t="n">
+      <c r="D496" s="3" t="n">
         <v>28681.44</v>
       </c>
-      <c r="E496" s="0" t="n">
+      <c r="E496" s="11" t="n">
         <v>6800</v>
       </c>
-    </row>
-    <row r="497" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F496" s="11"/>
+      <c r="G496" s="11"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
         <v>8</v>
       </c>
@@ -9430,9 +10030,12 @@
       <c r="C497" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D497" s="13" t="n">
+      <c r="D497" s="3" t="n">
         <v>4428.45</v>
       </c>
+      <c r="E497" s="11"/>
+      <c r="F497" s="11"/>
+      <c r="G497" s="11"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
@@ -9444,9 +10047,12 @@
       <c r="C498" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D498" s="0" t="n">
+      <c r="D498" s="11" t="n">
         <v>2238.08</v>
       </c>
+      <c r="E498" s="11"/>
+      <c r="F498" s="11"/>
+      <c r="G498" s="11"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
@@ -9458,9 +10064,12 @@
       <c r="C499" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D499" s="13" t="n">
+      <c r="D499" s="3" t="n">
         <v>14845.64</v>
       </c>
+      <c r="E499" s="11"/>
+      <c r="F499" s="11"/>
+      <c r="G499" s="11"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
@@ -9472,9 +10081,12 @@
       <c r="C500" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D500" s="13" t="n">
+      <c r="D500" s="3" t="n">
         <v>40449.67</v>
       </c>
+      <c r="E500" s="11"/>
+      <c r="F500" s="11"/>
+      <c r="G500" s="11"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
@@ -9486,9 +10098,12 @@
       <c r="C501" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D501" s="13" t="n">
+      <c r="D501" s="3" t="n">
         <v>12665.99</v>
       </c>
+      <c r="E501" s="11"/>
+      <c r="F501" s="11"/>
+      <c r="G501" s="11"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
@@ -9500,12 +10115,14 @@
       <c r="C502" s="12" t="n">
         <v>43196</v>
       </c>
-      <c r="D502" s="13" t="n">
+      <c r="D502" s="3" t="n">
         <v>25826.54</v>
       </c>
-      <c r="E502" s="0" t="n">
+      <c r="E502" s="11" t="n">
         <v>14700</v>
       </c>
+      <c r="F502" s="11"/>
+      <c r="G502" s="11"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
@@ -9514,12 +10131,15 @@
       <c r="B503" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C503" s="16" t="n">
+      <c r="C503" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D503" s="13" t="n">
+      <c r="D503" s="3" t="n">
         <v>14810.05</v>
       </c>
+      <c r="E503" s="11"/>
+      <c r="F503" s="11"/>
+      <c r="G503" s="11"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
@@ -9528,12 +10148,15 @@
       <c r="B504" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C504" s="16" t="n">
+      <c r="C504" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D504" s="13" t="n">
+      <c r="D504" s="3" t="n">
         <v>39861.41</v>
       </c>
+      <c r="E504" s="11"/>
+      <c r="F504" s="11"/>
+      <c r="G504" s="11"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
@@ -9542,12 +10165,15 @@
       <c r="B505" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C505" s="16" t="n">
+      <c r="C505" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D505" s="13" t="n">
+      <c r="D505" s="3" t="n">
         <v>12673.28</v>
       </c>
+      <c r="E505" s="11"/>
+      <c r="F505" s="11"/>
+      <c r="G505" s="11"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
@@ -9556,13 +10182,16 @@
       <c r="B506" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C506" s="16" t="n">
+      <c r="C506" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D506" s="0" t="n">
+      <c r="D506" s="11" t="n">
         <f aca="false">26054.46 + 14700</f>
         <v>40754.46</v>
       </c>
+      <c r="E506" s="11"/>
+      <c r="F506" s="11"/>
+      <c r="G506" s="11"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
@@ -9571,12 +10200,15 @@
       <c r="B507" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C507" s="16" t="n">
+      <c r="C507" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D507" s="13" t="n">
+      <c r="D507" s="3" t="n">
         <v>35398.17</v>
       </c>
+      <c r="E507" s="11"/>
+      <c r="F507" s="11"/>
+      <c r="G507" s="11"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
@@ -9585,12 +10217,15 @@
       <c r="B508" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C508" s="16" t="n">
+      <c r="C508" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D508" s="13" t="n">
+      <c r="D508" s="3" t="n">
         <v>6368.72</v>
       </c>
+      <c r="E508" s="11"/>
+      <c r="F508" s="11"/>
+      <c r="G508" s="11"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
@@ -9599,13 +10234,16 @@
       <c r="B509" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C509" s="16" t="n">
+      <c r="C509" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D509" s="0" t="n">
+      <c r="D509" s="11" t="n">
         <f aca="false">28934.16+6800</f>
         <v>35734.16</v>
       </c>
+      <c r="E509" s="11"/>
+      <c r="F509" s="11"/>
+      <c r="G509" s="11"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
@@ -9614,12 +10252,15 @@
       <c r="B510" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C510" s="16" t="n">
+      <c r="C510" s="12" t="n">
         <v>43200</v>
       </c>
-      <c r="D510" s="13" t="n">
+      <c r="D510" s="3" t="n">
         <v>4429.53</v>
       </c>
+      <c r="E510" s="11"/>
+      <c r="F510" s="11"/>
+      <c r="G510" s="11"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
@@ -9628,12 +10269,15 @@
       <c r="B511" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C511" s="16" t="n">
+      <c r="C511" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D511" s="13" t="n">
+      <c r="D511" s="3" t="n">
         <v>36098.88</v>
       </c>
+      <c r="E511" s="11"/>
+      <c r="F511" s="11"/>
+      <c r="G511" s="11"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
@@ -9642,12 +10286,15 @@
       <c r="B512" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C512" s="16" t="n">
+      <c r="C512" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D512" s="13" t="n">
+      <c r="D512" s="3" t="n">
         <v>6372.57</v>
       </c>
+      <c r="E512" s="11"/>
+      <c r="F512" s="11"/>
+      <c r="G512" s="11"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
@@ -9656,12 +10303,15 @@
       <c r="B513" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C513" s="16" t="n">
+      <c r="C513" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D513" s="13" t="n">
+      <c r="D513" s="3" t="n">
         <v>35765.08</v>
       </c>
+      <c r="E513" s="11"/>
+      <c r="F513" s="11"/>
+      <c r="G513" s="11"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
@@ -9670,12 +10320,15 @@
       <c r="B514" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C514" s="16" t="n">
+      <c r="C514" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D514" s="13" t="n">
+      <c r="D514" s="3" t="n">
         <v>4432.84</v>
       </c>
+      <c r="E514" s="11"/>
+      <c r="F514" s="11"/>
+      <c r="G514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
@@ -9684,12 +10337,15 @@
       <c r="B515" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C515" s="16" t="n">
+      <c r="C515" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D515" s="13" t="n">
+      <c r="D515" s="3" t="n">
         <v>14722.77</v>
       </c>
+      <c r="E515" s="11"/>
+      <c r="F515" s="11"/>
+      <c r="G515" s="11"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
@@ -9698,12 +10354,15 @@
       <c r="B516" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C516" s="16" t="n">
+      <c r="C516" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D516" s="13" t="n">
+      <c r="D516" s="3" t="n">
         <v>40567.77</v>
       </c>
+      <c r="E516" s="11"/>
+      <c r="F516" s="11"/>
+      <c r="G516" s="11"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
@@ -9712,12 +10371,15 @@
       <c r="B517" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C517" s="16" t="n">
+      <c r="C517" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D517" s="13" t="n">
+      <c r="D517" s="3" t="n">
         <v>12680.57</v>
       </c>
+      <c r="E517" s="11"/>
+      <c r="F517" s="11"/>
+      <c r="G517" s="11"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
@@ -9726,31 +10388,36 @@
       <c r="B518" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C518" s="16" t="n">
+      <c r="C518" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D518" s="13" t="n">
+      <c r="D518" s="3" t="n">
         <v>40502.99</v>
       </c>
+      <c r="E518" s="11"/>
+      <c r="F518" s="11"/>
+      <c r="G518" s="11"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B519" s="0" t="s">
+      <c r="A519" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B519" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C519" s="16" t="n">
+      <c r="C519" s="12" t="n">
         <v>43202</v>
       </c>
-      <c r="D519" s="0" t="n">
+      <c r="D519" s="11" t="n">
         <f aca="false">2181.83+77.18+1.77</f>
         <v>2260.78</v>
       </c>
-      <c r="F519" s="0" t="n">
+      <c r="E519" s="11"/>
+      <c r="F519" s="11" t="n">
         <f aca="false">2181.83+77.18+1.77</f>
         <v>2260.78</v>
       </c>
+      <c r="G519" s="11"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
@@ -9759,12 +10426,15 @@
       <c r="B520" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C520" s="16" t="n">
+      <c r="C520" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D520" s="13" t="n">
+      <c r="D520" s="3" t="n">
         <v>36526.85</v>
       </c>
+      <c r="E520" s="11"/>
+      <c r="F520" s="11"/>
+      <c r="G520" s="11"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
@@ -9773,12 +10443,15 @@
       <c r="B521" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C521" s="16" t="n">
+      <c r="C521" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D521" s="13" t="n">
+      <c r="D521" s="3" t="n">
         <v>6382.21</v>
       </c>
+      <c r="E521" s="11"/>
+      <c r="F521" s="11"/>
+      <c r="G521" s="11"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
@@ -9787,12 +10460,15 @@
       <c r="B522" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C522" s="16" t="n">
+      <c r="C522" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D522" s="13" t="n">
+      <c r="D522" s="3" t="n">
         <v>36081.85</v>
       </c>
+      <c r="E522" s="11"/>
+      <c r="F522" s="11"/>
+      <c r="G522" s="11"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
@@ -9801,12 +10477,15 @@
       <c r="B523" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C523" s="16" t="n">
+      <c r="C523" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D523" s="13" t="n">
+      <c r="D523" s="3" t="n">
         <v>4438.34</v>
       </c>
+      <c r="E523" s="11"/>
+      <c r="F523" s="11"/>
+      <c r="G523" s="11"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
@@ -9815,12 +10494,15 @@
       <c r="B524" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C524" s="16" t="n">
+      <c r="C524" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D524" s="13" t="n">
+      <c r="D524" s="3" t="n">
         <v>14600.27</v>
       </c>
+      <c r="E524" s="11"/>
+      <c r="F524" s="11"/>
+      <c r="G524" s="11"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
@@ -9829,12 +10511,15 @@
       <c r="B525" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C525" s="16" t="n">
+      <c r="C525" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D525" s="13" t="n">
+      <c r="D525" s="3" t="n">
         <v>41230.66</v>
       </c>
+      <c r="E525" s="11"/>
+      <c r="F525" s="11"/>
+      <c r="G525" s="11"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
@@ -9843,12 +10528,15 @@
       <c r="B526" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C526" s="16" t="n">
+      <c r="C526" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D526" s="13" t="n">
+      <c r="D526" s="3" t="n">
         <v>12698.82</v>
       </c>
+      <c r="E526" s="11"/>
+      <c r="F526" s="11"/>
+      <c r="G526" s="11"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
@@ -9857,12 +10545,15 @@
       <c r="B527" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C527" s="16" t="n">
+      <c r="C527" s="12" t="n">
         <v>43209</v>
       </c>
-      <c r="D527" s="13" t="n">
+      <c r="D527" s="3" t="n">
         <v>41218.12</v>
       </c>
+      <c r="E527" s="11"/>
+      <c r="F527" s="11"/>
+      <c r="G527" s="11"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
@@ -9871,12 +10562,15 @@
       <c r="B528" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C528" s="16" t="n">
+      <c r="C528" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D528" s="13" t="n">
+      <c r="D528" s="3" t="n">
         <v>36382.89</v>
       </c>
+      <c r="E528" s="11"/>
+      <c r="F528" s="11"/>
+      <c r="G528" s="11"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
@@ -9885,12 +10579,15 @@
       <c r="B529" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C529" s="16" t="n">
+      <c r="C529" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D529" s="13" t="n">
+      <c r="D529" s="3" t="n">
         <v>6386.07</v>
       </c>
+      <c r="E529" s="11"/>
+      <c r="F529" s="11"/>
+      <c r="G529" s="11"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
@@ -9899,29 +10596,34 @@
       <c r="B530" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C530" s="16" t="n">
+      <c r="C530" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D530" s="13" t="n">
+      <c r="D530" s="3" t="n">
         <v>36508.29</v>
       </c>
-    </row>
-    <row r="531" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E530" s="11"/>
+      <c r="F530" s="11"/>
+      <c r="G530" s="11"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C531" s="16" t="n">
+      <c r="C531" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D531" s="13" t="n">
+      <c r="D531" s="3" t="n">
         <v>4441.66</v>
       </c>
-      <c r="F531" s="13" t="n">
+      <c r="E531" s="11"/>
+      <c r="F531" s="3" t="n">
         <v>4441.66</v>
       </c>
+      <c r="G531" s="11"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
@@ -9930,12 +10632,15 @@
       <c r="B532" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C532" s="16" t="n">
+      <c r="C532" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D532" s="13" t="n">
+      <c r="D532" s="3" t="n">
         <v>14805.91</v>
       </c>
+      <c r="E532" s="11"/>
+      <c r="F532" s="11"/>
+      <c r="G532" s="11"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
@@ -9944,12 +10649,15 @@
       <c r="B533" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C533" s="16" t="n">
+      <c r="C533" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D533" s="13" t="n">
+      <c r="D533" s="3" t="n">
         <v>41066.16</v>
       </c>
+      <c r="E533" s="11"/>
+      <c r="F533" s="11"/>
+      <c r="G533" s="11"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
@@ -9958,12 +10666,15 @@
       <c r="B534" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C534" s="16" t="n">
+      <c r="C534" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D534" s="13" t="n">
+      <c r="D534" s="3" t="n">
         <v>12706.12</v>
       </c>
+      <c r="E534" s="11"/>
+      <c r="F534" s="11"/>
+      <c r="G534" s="11"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
@@ -9972,12 +10683,15 @@
       <c r="B535" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C535" s="16" t="n">
+      <c r="C535" s="12" t="n">
         <v>43213</v>
       </c>
-      <c r="D535" s="13" t="n">
+      <c r="D535" s="3" t="n">
         <v>41704.81</v>
       </c>
+      <c r="E535" s="11"/>
+      <c r="F535" s="11"/>
+      <c r="G535" s="11"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
@@ -9986,12 +10700,15 @@
       <c r="B536" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C536" s="16" t="n">
+      <c r="C536" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D536" s="13" t="n">
+      <c r="D536" s="3" t="n">
         <v>35908.81</v>
       </c>
+      <c r="E536" s="11"/>
+      <c r="F536" s="11"/>
+      <c r="G536" s="11"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
@@ -10000,12 +10717,15 @@
       <c r="B537" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C537" s="16" t="n">
+      <c r="C537" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D537" s="13" t="n">
+      <c r="D537" s="3" t="n">
         <v>6399.6</v>
       </c>
+      <c r="E537" s="11"/>
+      <c r="F537" s="11"/>
+      <c r="G537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
@@ -10014,12 +10734,15 @@
       <c r="B538" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C538" s="16" t="n">
+      <c r="C538" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D538" s="13" t="n">
+      <c r="D538" s="3" t="n">
         <v>36746.2</v>
       </c>
+      <c r="E538" s="11"/>
+      <c r="F538" s="11"/>
+      <c r="G538" s="11"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
@@ -10028,13 +10751,15 @@
       <c r="B539" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C539" s="16" t="n">
+      <c r="C539" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D539" s="13" t="n">
+      <c r="D539" s="3" t="n">
         <v>14684.72</v>
       </c>
-      <c r="F539" s="13"/>
+      <c r="E539" s="11"/>
+      <c r="F539" s="3"/>
+      <c r="G539" s="11"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
@@ -10043,12 +10768,15 @@
       <c r="B540" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C540" s="16" t="n">
+      <c r="C540" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D540" s="13" t="n">
+      <c r="D540" s="3" t="n">
         <v>40524.41</v>
       </c>
+      <c r="E540" s="11"/>
+      <c r="F540" s="11"/>
+      <c r="G540" s="11"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
@@ -10057,12 +10785,15 @@
       <c r="B541" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C541" s="16" t="n">
+      <c r="C541" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D541" s="13" t="n">
+      <c r="D541" s="3" t="n">
         <v>12731.73</v>
       </c>
+      <c r="E541" s="11"/>
+      <c r="F541" s="11"/>
+      <c r="G541" s="11"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
@@ -10071,12 +10802,15 @@
       <c r="B542" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C542" s="16" t="n">
+      <c r="C542" s="12" t="n">
         <v>43223</v>
       </c>
-      <c r="D542" s="13" t="n">
+      <c r="D542" s="3" t="n">
         <v>41976.36</v>
       </c>
+      <c r="E542" s="11"/>
+      <c r="F542" s="11"/>
+      <c r="G542" s="11"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
@@ -10085,12 +10819,15 @@
       <c r="B543" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C543" s="16" t="n">
+      <c r="C543" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D543" s="13" t="n">
+      <c r="D543" s="3" t="n">
         <v>14052.97</v>
       </c>
+      <c r="E543" s="11"/>
+      <c r="F543" s="11"/>
+      <c r="G543" s="11"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
@@ -10099,12 +10836,15 @@
       <c r="B544" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C544" s="16" t="n">
+      <c r="C544" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D544" s="13" t="n">
+      <c r="D544" s="3" t="n">
         <v>40759.45</v>
       </c>
+      <c r="E544" s="11"/>
+      <c r="F544" s="11"/>
+      <c r="G544" s="11"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
@@ -10113,12 +10853,15 @@
       <c r="B545" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C545" s="16" t="n">
+      <c r="C545" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D545" s="13" t="n">
+      <c r="D545" s="3" t="n">
         <v>12742.72</v>
       </c>
+      <c r="E545" s="11"/>
+      <c r="F545" s="11"/>
+      <c r="G545" s="11"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
@@ -10127,12 +10870,15 @@
       <c r="B546" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C546" s="16" t="n">
+      <c r="C546" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D546" s="13" t="n">
+      <c r="D546" s="3" t="n">
         <v>40643.1</v>
       </c>
+      <c r="E546" s="11"/>
+      <c r="F546" s="11"/>
+      <c r="G546" s="11"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
@@ -10141,12 +10887,15 @@
       <c r="B547" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C547" s="16" t="n">
+      <c r="C547" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D547" s="13" t="n">
+      <c r="D547" s="3" t="n">
         <v>36120.34</v>
       </c>
+      <c r="E547" s="11"/>
+      <c r="F547" s="11"/>
+      <c r="G547" s="11"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
@@ -10155,12 +10904,15 @@
       <c r="B548" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C548" s="16" t="n">
+      <c r="C548" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D548" s="13" t="n">
+      <c r="D548" s="3" t="n">
         <v>6405.41</v>
       </c>
+      <c r="E548" s="11"/>
+      <c r="F548" s="11"/>
+      <c r="G548" s="11"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
@@ -10169,12 +10921,15 @@
       <c r="B549" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C549" s="16" t="n">
+      <c r="C549" s="12" t="n">
         <v>43228</v>
       </c>
-      <c r="D549" s="13" t="n">
+      <c r="D549" s="3" t="n">
         <v>35578.07</v>
       </c>
+      <c r="E549" s="11"/>
+      <c r="F549" s="11"/>
+      <c r="G549" s="11"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
@@ -10183,12 +10938,15 @@
       <c r="B550" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C550" s="16" t="n">
+      <c r="C550" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D550" s="13" t="n">
+      <c r="D550" s="3" t="n">
         <v>14332.51</v>
       </c>
+      <c r="E550" s="11"/>
+      <c r="F550" s="11"/>
+      <c r="G550" s="11"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
@@ -10197,12 +10955,15 @@
       <c r="B551" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C551" s="16" t="n">
+      <c r="C551" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D551" s="13" t="n">
+      <c r="D551" s="3" t="n">
         <v>41474.83</v>
       </c>
+      <c r="E551" s="11"/>
+      <c r="F551" s="11"/>
+      <c r="G551" s="11"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
@@ -10211,12 +10972,15 @@
       <c r="B552" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C552" s="16" t="n">
+      <c r="C552" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D552" s="13" t="n">
+      <c r="D552" s="3" t="n">
         <v>12753.71</v>
       </c>
+      <c r="E552" s="11"/>
+      <c r="F552" s="11"/>
+      <c r="G552" s="11"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
@@ -10225,12 +10989,15 @@
       <c r="B553" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C553" s="16" t="n">
+      <c r="C553" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D553" s="13" t="n">
+      <c r="D553" s="3" t="n">
         <v>42092.09</v>
       </c>
+      <c r="E553" s="11"/>
+      <c r="F553" s="11"/>
+      <c r="G553" s="11"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
@@ -10239,12 +11006,15 @@
       <c r="B554" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C554" s="16" t="n">
+      <c r="C554" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D554" s="13" t="n">
+      <c r="D554" s="3" t="n">
         <v>36758.82</v>
       </c>
+      <c r="E554" s="11"/>
+      <c r="F554" s="11"/>
+      <c r="G554" s="11"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
@@ -10253,12 +11023,15 @@
       <c r="B555" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C555" s="16" t="n">
+      <c r="C555" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D555" s="13" t="n">
+      <c r="D555" s="3" t="n">
         <v>6411.22</v>
       </c>
+      <c r="E555" s="11"/>
+      <c r="F555" s="11"/>
+      <c r="G555" s="11"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
@@ -10267,12 +11040,15 @@
       <c r="B556" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C556" s="16" t="n">
+      <c r="C556" s="12" t="n">
         <v>43231</v>
       </c>
-      <c r="D556" s="13" t="n">
+      <c r="D556" s="3" t="n">
         <v>36847.6</v>
       </c>
+      <c r="E556" s="11"/>
+      <c r="F556" s="11"/>
+      <c r="G556" s="11"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
@@ -10281,12 +11057,15 @@
       <c r="B557" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C557" s="16" t="n">
+      <c r="C557" s="12" t="n">
         <v>43236</v>
       </c>
-      <c r="D557" s="13" t="n">
+      <c r="D557" s="3" t="n">
         <v>36274.78</v>
       </c>
+      <c r="E557" s="11"/>
+      <c r="F557" s="11"/>
+      <c r="G557" s="11"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
@@ -10295,12 +11074,15 @@
       <c r="B558" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C558" s="16" t="n">
+      <c r="C558" s="12" t="n">
         <v>43236</v>
       </c>
-      <c r="D558" s="13" t="n">
+      <c r="D558" s="3" t="n">
         <v>6417.04</v>
       </c>
+      <c r="E558" s="11"/>
+      <c r="F558" s="11"/>
+      <c r="G558" s="11"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
@@ -10309,15 +11091,17 @@
       <c r="B559" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C559" s="16" t="n">
+      <c r="C559" s="12" t="n">
         <v>43236</v>
       </c>
-      <c r="D559" s="13" t="n">
+      <c r="D559" s="3" t="n">
         <v>36660.86</v>
       </c>
-      <c r="E559" s="0" t="n">
+      <c r="E559" s="11" t="n">
         <v>2350</v>
       </c>
+      <c r="F559" s="11"/>
+      <c r="G559" s="11"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
@@ -10326,12 +11110,15 @@
       <c r="B560" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C560" s="16" t="n">
+      <c r="C560" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D560" s="13" t="n">
+      <c r="D560" s="3" t="n">
         <v>13365.56</v>
       </c>
+      <c r="E560" s="11"/>
+      <c r="F560" s="11"/>
+      <c r="G560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
@@ -10340,12 +11127,15 @@
       <c r="B561" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C561" s="16" t="n">
+      <c r="C561" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D561" s="13" t="n">
+      <c r="D561" s="3" t="n">
         <v>41600.94</v>
       </c>
+      <c r="E561" s="11"/>
+      <c r="F561" s="11"/>
+      <c r="G561" s="11"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
@@ -10354,12 +11144,15 @@
       <c r="B562" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C562" s="16" t="n">
+      <c r="C562" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D562" s="13" t="n">
+      <c r="D562" s="3" t="n">
         <v>12812.53</v>
       </c>
+      <c r="E562" s="11"/>
+      <c r="F562" s="11"/>
+      <c r="G562" s="11"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
@@ -10368,12 +11161,15 @@
       <c r="B563" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C563" s="16" t="n">
+      <c r="C563" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D563" s="13" t="n">
+      <c r="D563" s="3" t="n">
         <v>37626.12</v>
       </c>
+      <c r="E563" s="11"/>
+      <c r="F563" s="11"/>
+      <c r="G563" s="11"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
@@ -10382,15 +11178,17 @@
       <c r="B564" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C564" s="16" t="n">
+      <c r="C564" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D564" s="13" t="n">
+      <c r="D564" s="3" t="n">
         <v>36885.59</v>
       </c>
-      <c r="E564" s="0" t="n">
+      <c r="E564" s="11" t="n">
         <v>4600</v>
       </c>
+      <c r="F564" s="11"/>
+      <c r="G564" s="11"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
@@ -10399,12 +11197,15 @@
       <c r="B565" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C565" s="16" t="n">
+      <c r="C565" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D565" s="13" t="n">
+      <c r="D565" s="3" t="n">
         <v>6442.31</v>
       </c>
+      <c r="E565" s="11"/>
+      <c r="F565" s="11"/>
+      <c r="G565" s="11"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
@@ -10413,12 +11214,15 @@
       <c r="B566" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C566" s="16" t="n">
+      <c r="C566" s="12" t="n">
         <v>43255</v>
       </c>
-      <c r="D566" s="13" t="n">
+      <c r="D566" s="3" t="n">
         <v>35186.86</v>
       </c>
+      <c r="E566" s="11"/>
+      <c r="F566" s="11"/>
+      <c r="G566" s="11"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
@@ -10427,12 +11231,15 @@
       <c r="B567" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C567" s="16" t="n">
+      <c r="C567" s="12" t="n">
         <v>43257</v>
       </c>
-      <c r="D567" s="0" t="n">
+      <c r="D567" s="11" t="n">
         <v>41796.41</v>
       </c>
+      <c r="E567" s="11"/>
+      <c r="F567" s="11"/>
+      <c r="G567" s="11"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
@@ -10441,12 +11248,15 @@
       <c r="B568" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C568" s="16" t="n">
+      <c r="C568" s="12" t="n">
         <v>43257</v>
       </c>
-      <c r="D568" s="0" t="n">
+      <c r="D568" s="11" t="n">
         <v>6444.26</v>
       </c>
+      <c r="E568" s="11"/>
+      <c r="F568" s="11"/>
+      <c r="G568" s="11"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
@@ -10455,15 +11265,17 @@
       <c r="B569" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C569" s="16" t="n">
+      <c r="C569" s="12" t="n">
         <v>43257</v>
       </c>
-      <c r="D569" s="0" t="n">
+      <c r="D569" s="11" t="n">
         <v>35242.19</v>
       </c>
-      <c r="E569" s="0" t="n">
+      <c r="E569" s="11" t="n">
         <v>1600</v>
       </c>
+      <c r="F569" s="11"/>
+      <c r="G569" s="11"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
@@ -10472,15 +11284,17 @@
       <c r="B570" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C570" s="16" t="n">
+      <c r="C570" s="12" t="n">
         <v>43262</v>
       </c>
-      <c r="D570" s="13" t="n">
+      <c r="D570" s="3" t="n">
         <v>42176.62</v>
       </c>
-      <c r="E570" s="0" t="n">
+      <c r="E570" s="11" t="n">
         <v>1000</v>
       </c>
+      <c r="F570" s="11"/>
+      <c r="G570" s="11"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
@@ -10489,12 +11303,15 @@
       <c r="B571" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C571" s="16" t="n">
+      <c r="C571" s="12" t="n">
         <v>43262</v>
       </c>
-      <c r="D571" s="0" t="n">
+      <c r="D571" s="11" t="n">
         <v>6450</v>
       </c>
+      <c r="E571" s="11"/>
+      <c r="F571" s="11"/>
+      <c r="G571" s="11"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
@@ -10503,13 +11320,16 @@
       <c r="B572" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C572" s="16" t="n">
+      <c r="C572" s="12" t="n">
         <v>43262</v>
       </c>
-      <c r="D572" s="13" t="n">
+      <c r="D572" s="3" t="n">
         <f aca="false">33543.43+1600</f>
         <v>35143.43</v>
       </c>
+      <c r="E572" s="11"/>
+      <c r="F572" s="11"/>
+      <c r="G572" s="11"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
@@ -10518,12 +11338,15 @@
       <c r="B573" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C573" s="16" t="n">
+      <c r="C573" s="12" t="n">
         <v>43265</v>
       </c>
-      <c r="D573" s="13" t="n">
+      <c r="D573" s="3" t="n">
         <v>12603.04</v>
       </c>
+      <c r="E573" s="11"/>
+      <c r="F573" s="11"/>
+      <c r="G573" s="11"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
@@ -10532,15 +11355,17 @@
       <c r="B574" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C574" s="16" t="n">
+      <c r="C574" s="12" t="n">
         <v>43265</v>
       </c>
-      <c r="D574" s="13" t="n">
+      <c r="D574" s="3" t="n">
         <v>42445.22</v>
       </c>
-      <c r="E574" s="0" t="n">
+      <c r="E574" s="11" t="n">
         <v>3040</v>
       </c>
+      <c r="F574" s="11"/>
+      <c r="G574" s="11"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
@@ -10549,12 +11374,15 @@
       <c r="B575" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C575" s="16" t="n">
+      <c r="C575" s="12" t="n">
         <v>43265</v>
       </c>
-      <c r="D575" s="13" t="n">
+      <c r="D575" s="3" t="n">
         <v>12838.35</v>
       </c>
+      <c r="E575" s="11"/>
+      <c r="F575" s="11"/>
+      <c r="G575" s="11"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
@@ -10563,12 +11391,15 @@
       <c r="B576" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C576" s="16" t="n">
+      <c r="C576" s="12" t="n">
         <v>43265</v>
       </c>
-      <c r="D576" s="13" t="n">
+      <c r="D576" s="3" t="n">
         <v>34312.84</v>
       </c>
+      <c r="E576" s="11"/>
+      <c r="F576" s="11"/>
+      <c r="G576" s="11"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
@@ -10577,12 +11408,15 @@
       <c r="B577" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C577" s="17" t="n">
+      <c r="C577" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D577" s="13" t="n">
+      <c r="D577" s="3" t="n">
         <v>42392.38</v>
       </c>
+      <c r="E577" s="11"/>
+      <c r="F577" s="11"/>
+      <c r="G577" s="11"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
@@ -10591,12 +11425,15 @@
       <c r="B578" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C578" s="17" t="n">
+      <c r="C578" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D578" s="13" t="n">
+      <c r="D578" s="3" t="n">
         <v>6483.34</v>
       </c>
+      <c r="E578" s="11"/>
+      <c r="F578" s="11"/>
+      <c r="G578" s="11"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
@@ -10605,12 +11442,15 @@
       <c r="B579" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C579" s="17" t="n">
+      <c r="C579" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D579" s="13" t="n">
+      <c r="D579" s="3" t="n">
         <v>35036.76</v>
       </c>
+      <c r="E579" s="11"/>
+      <c r="F579" s="11"/>
+      <c r="G579" s="11"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
@@ -10619,12 +11459,15 @@
       <c r="B580" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C580" s="17" t="n">
+      <c r="C580" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D580" s="13" t="n">
+      <c r="D580" s="3" t="n">
         <v>12603.04</v>
       </c>
+      <c r="E580" s="11"/>
+      <c r="F580" s="11"/>
+      <c r="G580" s="11"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
@@ -10633,12 +11476,15 @@
       <c r="B581" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C581" s="17" t="n">
+      <c r="C581" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D581" s="13" t="n">
+      <c r="D581" s="3" t="n">
         <v>44540.4</v>
       </c>
+      <c r="E581" s="11"/>
+      <c r="F581" s="11"/>
+      <c r="G581" s="11"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
@@ -10647,12 +11493,15 @@
       <c r="B582" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C582" s="17" t="n">
+      <c r="C582" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D582" s="13" t="n">
+      <c r="D582" s="3" t="n">
         <v>12890.14</v>
       </c>
+      <c r="E582" s="11"/>
+      <c r="F582" s="11"/>
+      <c r="G582" s="11"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
@@ -10661,11 +11510,266 @@
       <c r="B583" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C583" s="17" t="n">
+      <c r="C583" s="12" t="n">
         <v>43285</v>
       </c>
-      <c r="D583" s="13" t="n">
+      <c r="D583" s="3" t="n">
         <v>35678.53</v>
+      </c>
+      <c r="E583" s="11"/>
+      <c r="F583" s="11"/>
+      <c r="G583" s="11"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B584" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C584" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D584" s="11" t="n">
+        <v>12690</v>
+      </c>
+      <c r="E584" s="11"/>
+      <c r="F584" s="11" t="n">
+        <v>12690</v>
+      </c>
+      <c r="G584" s="11"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C585" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D585" s="3" t="n">
+        <v>45546.83</v>
+      </c>
+      <c r="E585" s="11"/>
+      <c r="F585" s="11"/>
+      <c r="G585" s="11"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C586" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D586" s="3" t="n">
+        <v>12908.69</v>
+      </c>
+      <c r="E586" s="11"/>
+      <c r="F586" s="11"/>
+      <c r="G586" s="11"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B587" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D587" s="3" t="n">
+        <v>37591.35</v>
+      </c>
+      <c r="E587" s="11"/>
+      <c r="F587" s="11"/>
+      <c r="G587" s="11"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B588" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C588" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D588" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E588" s="11" t="n">
+        <v>12690</v>
+      </c>
+      <c r="F588" s="11"/>
+      <c r="G588" s="11"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C589" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D589" s="3" t="n">
+        <v>43356.04</v>
+      </c>
+      <c r="E589" s="11"/>
+      <c r="F589" s="11"/>
+      <c r="G589" s="11"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C590" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D590" s="3" t="n">
+        <v>6493.15</v>
+      </c>
+      <c r="E590" s="11"/>
+      <c r="F590" s="11"/>
+      <c r="G590" s="11"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591" s="12" t="n">
+        <v>43292</v>
+      </c>
+      <c r="D591" s="3" t="n">
+        <v>36915.19</v>
+      </c>
+      <c r="E591" s="11"/>
+      <c r="F591" s="11"/>
+      <c r="G591" s="11"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B592" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C592" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D592" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C593" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D593" s="3" t="n">
+        <v>45546.83</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C594" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D594" s="3" t="n">
+        <v>12908.69</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B595" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D595" s="3" t="n">
+        <v>37591.35</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B596" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C596" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D596" s="11" t="n">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C597" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D597" s="3" t="n">
+        <v>43356.04</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C598" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D598" s="3" t="n">
+        <v>6493.15</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" s="12" t="n">
+        <v>43293</v>
+      </c>
+      <c r="D599" s="3" t="n">
+        <v>36915.19</v>
       </c>
     </row>
     <row r="65527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="25">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -202,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +267,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -287,9 +291,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E592" activeCellId="0" sqref="E592"/>
+      <selection pane="bottomLeft" activeCell="D606" activeCellId="0" sqref="D606:D608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11664,14 +11668,17 @@
       <c r="A592" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B592" s="11" t="s">
-        <v>22</v>
+      <c r="B592" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C592" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D592" s="11" t="n">
-        <v>0</v>
+        <v>43297</v>
+      </c>
+      <c r="D592" s="15" t="n">
+        <v>45679.48</v>
+      </c>
+      <c r="F592" s="0" t="n">
+        <v>21800</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11679,55 +11686,55 @@
         <v>20</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C593" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D593" s="3" t="n">
-        <v>45546.83</v>
+        <v>43297</v>
+      </c>
+      <c r="D593" s="15" t="n">
+        <v>12919.83</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>21</v>
+      <c r="B594" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C594" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D594" s="3" t="n">
-        <v>12908.69</v>
+        <v>43297</v>
+      </c>
+      <c r="D594" s="15" t="n">
+        <v>36759.78</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B595" s="11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C595" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D595" s="3" t="n">
-        <v>37591.35</v>
+        <v>43297</v>
+      </c>
+      <c r="D595" s="15" t="n">
+        <v>12646.31</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B596" s="11" t="s">
-        <v>24</v>
+      <c r="A596" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C596" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D596" s="11" t="n">
-        <v>12690</v>
+        <v>43297</v>
+      </c>
+      <c r="D596" s="15" t="n">
+        <v>43482.61</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11735,13 +11742,13 @@
         <v>8</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C597" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D597" s="3" t="n">
-        <v>43356.04</v>
+        <v>43297</v>
+      </c>
+      <c r="D597" s="15" t="n">
+        <v>6499.04</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11749,30 +11756,213 @@
         <v>8</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C598" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D598" s="3" t="n">
-        <v>6493.15</v>
+        <v>43297</v>
+      </c>
+      <c r="D598" s="15" t="n">
+        <v>36098.57</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B599" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C599" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D599" s="15" t="n">
+        <v>24110.8</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C600" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D600" s="15" t="n">
+        <v>12949.59</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B601" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C599" s="12" t="n">
-        <v>43293</v>
-      </c>
-      <c r="D599" s="3" t="n">
-        <v>36915.19</v>
-      </c>
-    </row>
-    <row r="65527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C601" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D601" s="15" t="n">
+        <v>39977.92</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B602" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C602" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D602" s="15" t="n">
+        <v>12671.48</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C603" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D603" s="15" t="n">
+        <v>43818.29</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C604" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D604" s="15" t="n">
+        <v>6514.78</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C605" s="16" t="n">
+        <v>43307</v>
+      </c>
+      <c r="D605" s="15" t="n">
+        <v>39205.74</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C606" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D606" s="15" t="n">
+        <v>43962.09</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C607" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D607" s="15" t="n">
+        <v>6528.58</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C608" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D608" s="15" t="n">
+        <v>39864.44</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C609" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D609" s="15" t="n">
+        <v>24190.51</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C610" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D610" s="15" t="n">
+        <v>12975.69</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C611" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D611" s="15" t="n">
+        <v>40648.7</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B612" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C612" s="16" t="n">
+        <v>43318</v>
+      </c>
+      <c r="D612" s="15" t="n">
+        <v>12693.54</v>
+      </c>
+    </row>
+    <row r="65526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="25">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -104,11 +104,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -202,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +272,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -291,9 +296,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D606" activeCellId="0" sqref="D606:D608"/>
+      <selection pane="bottomLeft" activeCell="C632" activeCellId="0" sqref="C632:C636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11959,6 +11964,349 @@
       </c>
       <c r="D612" s="15" t="n">
         <v>12693.54</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C613" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D613" s="15" t="n">
+        <v>44442.79</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D614" s="15" t="n">
+        <v>6540.43</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D615" s="15" t="n">
+        <v>37423.55</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C616" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D616" s="15" t="n">
+        <v>24423.25</v>
+      </c>
+      <c r="E616" s="0" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C617" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D617" s="15" t="n">
+        <v>12998.1</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B618" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D618" s="15" t="n">
+        <v>38109.04</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B619" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C619" s="16" t="n">
+        <v>43326</v>
+      </c>
+      <c r="D619" s="15" t="n">
+        <v>12712.49</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C620" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D620" s="15" t="n">
+        <v>26480.39</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C621" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D621" s="15" t="n">
+        <v>13028.03</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B622" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C622" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D622" s="15" t="n">
+        <v>35006.15</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B623" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C623" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D623" s="15" t="n">
+        <v>12737.8</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C624" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D624" s="15" t="n">
+        <v>44429.24</v>
+      </c>
+      <c r="F624" s="0" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C625" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D625" s="15" t="n">
+        <v>6556.27</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C626" s="16" t="n">
+        <v>43336</v>
+      </c>
+      <c r="D626" s="15" t="n">
+        <v>34376.48</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C627" s="16" t="n">
+        <v>43337</v>
+      </c>
+      <c r="D627" s="15" t="n">
+        <f aca="false">D624-30000</f>
+        <v>14429.24</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628" s="16" t="n">
+        <v>43337</v>
+      </c>
+      <c r="D628" s="15" t="n">
+        <v>6556.27</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C629" s="16" t="n">
+        <v>43337</v>
+      </c>
+      <c r="D629" s="15" t="n">
+        <v>34376.48</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C630" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D630" s="15" t="n">
+        <v>15760.75</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C631" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D631" s="15" t="n">
+        <v>6586.07</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C632" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D632" s="15" t="n">
+        <v>31386.82</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C633" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D633" s="15" t="n">
+        <v>27318.7</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C634" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D634" s="15" t="n">
+        <v>13084.35</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B635" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C635" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D635" s="15" t="n">
+        <v>31961.73</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B636" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C636" s="17" t="n">
+        <v>43357</v>
+      </c>
+      <c r="D636" s="15" t="n">
+        <v>12787.86</v>
       </c>
     </row>
     <row r="65526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/investimentos.xlsx
+++ b/data/investimentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="25">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -296,9 +296,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C632" activeCellId="0" sqref="C632:C636"/>
+      <selection pane="bottomLeft" activeCell="G653" activeCellId="0" sqref="G653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12218,7 +12218,7 @@
       <c r="B630" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C630" s="17" t="n">
+      <c r="C630" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D630" s="15" t="n">
@@ -12232,7 +12232,7 @@
       <c r="B631" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C631" s="17" t="n">
+      <c r="C631" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D631" s="15" t="n">
@@ -12246,7 +12246,7 @@
       <c r="B632" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C632" s="17" t="n">
+      <c r="C632" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D632" s="15" t="n">
@@ -12260,7 +12260,7 @@
       <c r="B633" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C633" s="17" t="n">
+      <c r="C633" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D633" s="15" t="n">
@@ -12274,7 +12274,7 @@
       <c r="B634" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C634" s="17" t="n">
+      <c r="C634" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D634" s="15" t="n">
@@ -12288,7 +12288,7 @@
       <c r="B635" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C635" s="17" t="n">
+      <c r="C635" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D635" s="15" t="n">
@@ -12302,14 +12302,249 @@
       <c r="B636" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C636" s="17" t="n">
+      <c r="C636" s="16" t="n">
         <v>43357</v>
       </c>
       <c r="D636" s="15" t="n">
         <v>12787.86</v>
       </c>
     </row>
-    <row r="65526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C637" s="16" t="n">
+        <v>43375</v>
+      </c>
+      <c r="D637" s="15" t="n">
+        <v>15890.96</v>
+      </c>
+      <c r="E637" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C638" s="16" t="n">
+        <v>43375</v>
+      </c>
+      <c r="D638" s="15" t="n">
+        <v>6608.01</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C639" s="16" t="n">
+        <v>43375</v>
+      </c>
+      <c r="D639" s="15" t="n">
+        <v>35953.15</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C640" s="17" t="n">
+        <v>43381</v>
+      </c>
+      <c r="D640" s="0" t="n">
+        <v>17028.16</v>
+      </c>
+      <c r="E640" s="0" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" s="17" t="n">
+        <v>43381</v>
+      </c>
+      <c r="D641" s="0" t="n">
+        <v>6616.02</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C642" s="17" t="n">
+        <v>43381</v>
+      </c>
+      <c r="D642" s="0" t="n">
+        <v>39503.81</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C643" s="17" t="n">
+        <v>43383</v>
+      </c>
+      <c r="D643" s="0" t="n">
+        <v>22446.34</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644" s="17" t="n">
+        <v>43383</v>
+      </c>
+      <c r="D644" s="0" t="n">
+        <v>6620.03</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C645" s="17" t="n">
+        <v>43383</v>
+      </c>
+      <c r="D645" s="0" t="n">
+        <v>42841.43</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C646" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D646" s="15" t="n">
+        <v>21782.47</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C647" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D647" s="15" t="n">
+        <v>6624.04</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C648" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D648" s="15" t="n">
+        <v>41439.9</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C649" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D649" s="0" t="n">
+        <v>26019.73</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C650" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D650" s="0" t="n">
+        <v>13156.09</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B651" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C651" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D651" s="0" t="n">
+        <v>42252.99</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B652" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C652" s="17" t="n">
+        <v>43387</v>
+      </c>
+      <c r="D652" s="0" t="n">
+        <v>12848.31</v>
+      </c>
+    </row>
+    <row r="65521" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
